--- a/data/hotels_by_city/Houston/Houston_shard_137.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_137.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="703">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d98936-Reviews-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Courtyard-By-Marriott-Houston-Brookhollow.h6298.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2025 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r580925133-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>98936</t>
+  </si>
+  <si>
+    <t>580925133</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Clean but traffic very noisy</t>
+  </si>
+  <si>
+    <t>Hotel seems very outdated but kept very clean. Street outside is very busy and noisy, only thing that drowns it out is the noisy air conditioner. Staff is polite. Rooms being renovated, some noise during the day.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Jeremiah D, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Hotel seems very outdated but kept very clean. Street outside is very busy and noisy, only thing that drowns it out is the noisy air conditioner. Staff is polite. Rooms being renovated, some noise during the day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r575030636-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575030636</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Very Accommodating!</t>
+  </si>
+  <si>
+    <t>I stayed there this past week with a high school robotics team. The experience was far better than we had hoped. When we booked, we were looking for a very affordable hotel that could supply 8 rooms. It was very clean and up to date, air conditioning worked very well, and it was located walking distance to two convenient stores and a few restaurants. The staff was all very kind and helpful, but the manager was the most accommodating! They knew the best local recommendations and the manager helped us find the perfect meeting place for our team. He made absolute sure everything went smoothly. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I stayed there this past week with a high school robotics team. The experience was far better than we had hoped. When we booked, we were looking for a very affordable hotel that could supply 8 rooms. It was very clean and up to date, air conditioning worked very well, and it was located walking distance to two convenient stores and a few restaurants. The staff was all very kind and helpful, but the manager was the most accommodating! They knew the best local recommendations and the manager helped us find the perfect meeting place for our team. He made absolute sure everything went smoothly. I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r564385535-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564385535</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Nice rooms</t>
+  </si>
+  <si>
+    <t>I had not stayed here for several years. The rooms and lobby have been remodeled and both are very nice. Clean, well furnished, friendly staff. This is a good place to stay in the area. Recommended hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I had not stayed here for several years. The rooms and lobby have been remodeled and both are very nice. Clean, well furnished, friendly staff. This is a good place to stay in the area. Recommended hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r550257958-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550257958</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>Bad Experience</t>
+  </si>
+  <si>
+    <t>My wife left her brand new purse at this hotel. We called back the next day. They said they had it and would mail it to us. I offered to pay the postage and they said they would cover it which I thought was nice. As of December 30 (3 weeks after our stay) we still don't have the purse..So...I called back...no one seemed to know anything...the 1st person who answered the phone transferred me to "The manager" ...I got a voicemail..so..I hung up and called back..this time another gal answered...I asked her what phone # and address they had for me...BOTH were incorrect...wow...I'm a Marriott Rewards member and thankfully they had the correct # for that. This person put me on hold for approximately 5 minutes (something you never ever do)...I finally hung up..again..and called back..Again...The gal who answered interrupted me (another customer service mistake)..but..said they had the purse..I asked..."are you going to send it to us as you promised or not?"..she said.."I'll need to get with "The Manager....whatever...I told them If we didn't have the purse in 1 week, they would hear from me again...Don't really care to stay at another Marriott after this horrendous experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Tiagee T, Guest Relations Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded January 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2018</t>
+  </si>
+  <si>
+    <t>My wife left her brand new purse at this hotel. We called back the next day. They said they had it and would mail it to us. I offered to pay the postage and they said they would cover it which I thought was nice. As of December 30 (3 weeks after our stay) we still don't have the purse..So...I called back...no one seemed to know anything...the 1st person who answered the phone transferred me to "The manager" ...I got a voicemail..so..I hung up and called back..this time another gal answered...I asked her what phone # and address they had for me...BOTH were incorrect...wow...I'm a Marriott Rewards member and thankfully they had the correct # for that. This person put me on hold for approximately 5 minutes (something you never ever do)...I finally hung up..again..and called back..Again...The gal who answered interrupted me (another customer service mistake)..but..said they had the purse..I asked..."are you going to send it to us as you promised or not?"..she said.."I'll need to get with "The Manager....whatever...I told them If we didn't have the purse in 1 week, they would hear from me again...Don't really care to stay at another Marriott after this horrendous experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r535921071-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535921071</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel and Staff</t>
+  </si>
+  <si>
+    <t>My husband and I recently stayed at the Marriott Brookhollow.  The hotel was very clean and the staff was very friendly.  I became ill while on our trip and the hotel staff was very kind by checking on me and offering their assistance.  My husband and I will definitely return to this hotel the next time we are in the area.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r529018601-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529018601</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>The Bistro, Starbucks and The Market!</t>
+  </si>
+  <si>
+    <t>Courtyard started updating their lobby and common area and adding The Bistro, Starbucks and The Market a few years back. I really enjoyed what they did at this Courtyard. I enjoyed their selection for breakfast. Though I didn't hang out in the evening, I noticed it was a very popular place for other guests in the evenings during my stay. The staff have been very friendly and helpful. I give them five star. I think they would renovate the rooms soon. Everything is functioning properly but you can tell they have been some better days. The TV channels work perfectly at the first floor dining area but the signal in the room wasn't nearly as good. Overall, I would go back for the convenience and great serviceMoreShow less</t>
+  </si>
+  <si>
+    <t>Courtyard started updating their lobby and common area and adding The Bistro, Starbucks and The Market a few years back. I really enjoyed what they did at this Courtyard. I enjoyed their selection for breakfast. Though I didn't hang out in the evening, I noticed it was a very popular place for other guests in the evenings during my stay. The staff have been very friendly and helpful. I give them five star. I think they would renovate the rooms soon. Everything is functioning properly but you can tell they have been some better days. The TV channels work perfectly at the first floor dining area but the signal in the room wasn't nearly as good. Overall, I would go back for the convenience and great serviceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r517196606-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>517196606</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Fantastic Stay</t>
+  </si>
+  <si>
+    <t>First off let me just say the staff here is amazing! Rosa, Nicki, Perry, Jasmine and Erica, thank you! Room was comfortable, made to order bfast was delicious and the lobby was a great gathering spot. We will stay here again.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r512441845-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>512441845</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Fine Staff</t>
+  </si>
+  <si>
+    <t>Very helpful, pleasant and patient staff make the difference here. The room was quite clean and the bed comfortable, but I certainly would like better light in the bathroom for putting on makeup. Television very fussy, insisted it wasn't getting a signal for several minutes after turning it on, and finally a change of channel helped.And why are luggage racks not automatically in a room?  No coffee in lobby except from the Sbux outlet, unfortunately, but once there was cold water and cookies by the front desk. Lots of help from the staff for an emergency run to pick up a couple of things at a drugstore, smiling faces, accurate information and no feeling of "Well, they've learned the corporate script." Slept really well though.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Very helpful, pleasant and patient staff make the difference here. The room was quite clean and the bed comfortable, but I certainly would like better light in the bathroom for putting on makeup. Television very fussy, insisted it wasn't getting a signal for several minutes after turning it on, and finally a change of channel helped.And why are luggage racks not automatically in a room?  No coffee in lobby except from the Sbux outlet, unfortunately, but once there was cold water and cookies by the front desk. Lots of help from the staff for an emergency run to pick up a couple of things at a drugstore, smiling faces, accurate information and no feeling of "Well, they've learned the corporate script." Slept really well though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r507887419-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507887419</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Budget friendly hotel</t>
+  </si>
+  <si>
+    <t>This is an old hotel without updated.The price is very cheap in Houston area.Close to IAH.You pay for what you get, not surprise by the value of the price but clean and adequate.Good for business trip travelling with budget.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r495855685-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495855685</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Superior customer service!</t>
+  </si>
+  <si>
+    <t>The staff here is just exceptional! We arrived late on a Saturday, after eleven hours in the car with a cranky two year ago old - three generations of exhausted women! From Rosa and Ms. Alexander at the front desk to the young woman who brought us a pack and play so we could put the little one to bed, everyone we met was kind and helpful far above the call of duty! Sunday morning, this grandma found helpful hands, a kind word, and genuine smiles with every staff encounter. From the young man at the desk in the early morning hours, to Perry at The Bistro cafe, who made sure that both a picky toddler and a grandma with special dietary needs were cheerfully and completely accommodated, to Rosa at the front desk again, I could not have asked for a better experience! 
+Of course, our room was clean and comfortable, and the hotel amenities were very nice. I slept well in my comfortable bed in our quiet room. My only criticism at all is that there should be a fan in the bathroom. It got pretty steamy in there after our morning showers!
+I used the fitness center. It is small, but has the essentials in good repair. We ate several nice meals at The Bistro and made a few small purchases at The Market. Both were clean, well stocked, with quick, cheerful service. The wi-fi was fast...The staff here is just exceptional! We arrived late on a Saturday, after eleven hours in the car with a cranky two year ago old - three generations of exhausted women! From Rosa and Ms. Alexander at the front desk to the young woman who brought us a pack and play so we could put the little one to bed, everyone we met was kind and helpful far above the call of duty! Sunday morning, this grandma found helpful hands, a kind word, and genuine smiles with every staff encounter. From the young man at the desk in the early morning hours, to Perry at The Bistro cafe, who made sure that both a picky toddler and a grandma with special dietary needs were cheerfully and completely accommodated, to Rosa at the front desk again, I could not have asked for a better experience! Of course, our room was clean and comfortable, and the hotel amenities were very nice. I slept well in my comfortable bed in our quiet room. My only criticism at all is that there should be a fan in the bathroom. It got pretty steamy in there after our morning showers!I used the fitness center. It is small, but has the essentials in good repair. We ate several nice meals at The Bistro and made a few small purchases at The Market. Both were clean, well stocked, with quick, cheerful service. The wi-fi was fast and easy to access for this seriously analog grandma! All in all, one of the best experiences I have had in this type of hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff here is just exceptional! We arrived late on a Saturday, after eleven hours in the car with a cranky two year ago old - three generations of exhausted women! From Rosa and Ms. Alexander at the front desk to the young woman who brought us a pack and play so we could put the little one to bed, everyone we met was kind and helpful far above the call of duty! Sunday morning, this grandma found helpful hands, a kind word, and genuine smiles with every staff encounter. From the young man at the desk in the early morning hours, to Perry at The Bistro cafe, who made sure that both a picky toddler and a grandma with special dietary needs were cheerfully and completely accommodated, to Rosa at the front desk again, I could not have asked for a better experience! 
+Of course, our room was clean and comfortable, and the hotel amenities were very nice. I slept well in my comfortable bed in our quiet room. My only criticism at all is that there should be a fan in the bathroom. It got pretty steamy in there after our morning showers!
+I used the fitness center. It is small, but has the essentials in good repair. We ate several nice meals at The Bistro and made a few small purchases at The Market. Both were clean, well stocked, with quick, cheerful service. The wi-fi was fast...The staff here is just exceptional! We arrived late on a Saturday, after eleven hours in the car with a cranky two year ago old - three generations of exhausted women! From Rosa and Ms. Alexander at the front desk to the young woman who brought us a pack and play so we could put the little one to bed, everyone we met was kind and helpful far above the call of duty! Sunday morning, this grandma found helpful hands, a kind word, and genuine smiles with every staff encounter. From the young man at the desk in the early morning hours, to Perry at The Bistro cafe, who made sure that both a picky toddler and a grandma with special dietary needs were cheerfully and completely accommodated, to Rosa at the front desk again, I could not have asked for a better experience! Of course, our room was clean and comfortable, and the hotel amenities were very nice. I slept well in my comfortable bed in our quiet room. My only criticism at all is that there should be a fan in the bathroom. It got pretty steamy in there after our morning showers!I used the fitness center. It is small, but has the essentials in good repair. We ate several nice meals at The Bistro and made a few small purchases at The Market. Both were clean, well stocked, with quick, cheerful service. The wi-fi was fast and easy to access for this seriously analog grandma! All in all, one of the best experiences I have had in this type of hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r481086049-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481086049</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly staff, clean, not safest area. </t>
+  </si>
+  <si>
+    <t>This was a great place to stay for me, considering I was on a business trip and didn't have my family.  It's not an area you would want to be walking around especially after dark, but it's not a TERRIBLE area. There are a lot of beggars/pan handlers in the area. The bistro is wayyy overpriced. There's a great Hispanic restaurant within walking distance (La Playita I think it's called). The shuttle will bring you there if needed. My room was clean and well kept. The staff was phenomenal and always willing to do what they could to make my stay great. Overall, my stay was great and I would recommend this to anyone coming in for the weekend or staying on business. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>This was a great place to stay for me, considering I was on a business trip and didn't have my family.  It's not an area you would want to be walking around especially after dark, but it's not a TERRIBLE area. There are a lot of beggars/pan handlers in the area. The bistro is wayyy overpriced. There's a great Hispanic restaurant within walking distance (La Playita I think it's called). The shuttle will bring you there if needed. My room was clean and well kept. The staff was phenomenal and always willing to do what they could to make my stay great. Overall, my stay was great and I would recommend this to anyone coming in for the weekend or staying on business. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r471735974-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471735974</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Excellent in every way!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for several weeks. Every staff member is professional, very friendly, and helpful. A special shout out to the manager Ms. Alexander who was so helpful and sensitive to the needs of my family during a trying time. Valencia at "the Bistro" was so thoughtful. My sister was sick and came down for some oatmeal and Valencia got it for her even though it was after hours. Rooms are very clean and comfortable. I highly recommend this hotel. It is in a great location.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r462191432-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462191432</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Very Good Courtyard Experience</t>
+  </si>
+  <si>
+    <t>Flew into Houston about 11 pm from Taipei and we had made reservations at the Courtyard hotel.  They had no problem sending their complementary shuttle bus to promptly transport us to the hotel, the shuttle was roomy and offered us free bottled water and snacks.  The trip took about 10 minutes as the hotel is not on the airport property, but very close by.  The staff checked us into our room promptly, offered a very quiet room and late checkout which was welcome after a 14 hour flight.  Hotel and room were very clean and comfortable, well up to Marriott standards.  Would not hesitate to book there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r456567554-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456567554</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Motel Style Service and Exterior</t>
+  </si>
+  <si>
+    <t>If you're a stickler for manners and professionalism, this may not be the place for you.   The young lady that checked me in was way too unprofessional and there was no acknowledgment of my Marriott loyalty.  Then she promptly proceeded to tell me that I could not check out late, even though I did not ask, and even though it is a benefit of my Rewards account with Marriott.   
+I took care of the late check out issue the following day with someone else, who was much more professional.  Unfortunately however, in spite of my having the 'do not disturb' sign out, house keeping came knocking at 8:30 AM and then again at 3:30 PM(opening the door this time), interrupting business calls on both occasions.  I literally was walking out the room at 4:03 when, guess who, the same unprofessional young lady from the day before, called to rudely ask "if I had another reservation, or something".  
+The outside of the hotel is dilapidated.  However, some effort has been put into upgrading the lobby.  They haven't yet gotten to upgrading the gym.  
+The phone in the room made a horrible noise and needs to be replaced.  I'm pretty sure they're lots of great people that work here that provide Marriott quality service, it just so happened that my interaction was with a couple folks that should not be in the hospitality industry.   
+I would not recommend this hotel and probably...If you're a stickler for manners and professionalism, this may not be the place for you.   The young lady that checked me in was way too unprofessional and there was no acknowledgment of my Marriott loyalty.  Then she promptly proceeded to tell me that I could not check out late, even though I did not ask, and even though it is a benefit of my Rewards account with Marriott.   I took care of the late check out issue the following day with someone else, who was much more professional.  Unfortunately however, in spite of my having the 'do not disturb' sign out, house keeping came knocking at 8:30 AM and then again at 3:30 PM(opening the door this time), interrupting business calls on both occasions.  I literally was walking out the room at 4:03 when, guess who, the same unprofessional young lady from the day before, called to rudely ask "if I had another reservation, or something".  The outside of the hotel is dilapidated.  However, some effort has been put into upgrading the lobby.  They haven't yet gotten to upgrading the gym.  The phone in the room made a horrible noise and needs to be replaced.  I'm pretty sure they're lots of great people that work here that provide Marriott quality service, it just so happened that my interaction was with a couple folks that should not be in the hospitality industry.   I would not recommend this hotel and probably won't stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded February 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2017</t>
+  </si>
+  <si>
+    <t>If you're a stickler for manners and professionalism, this may not be the place for you.   The young lady that checked me in was way too unprofessional and there was no acknowledgment of my Marriott loyalty.  Then she promptly proceeded to tell me that I could not check out late, even though I did not ask, and even though it is a benefit of my Rewards account with Marriott.   
+I took care of the late check out issue the following day with someone else, who was much more professional.  Unfortunately however, in spite of my having the 'do not disturb' sign out, house keeping came knocking at 8:30 AM and then again at 3:30 PM(opening the door this time), interrupting business calls on both occasions.  I literally was walking out the room at 4:03 when, guess who, the same unprofessional young lady from the day before, called to rudely ask "if I had another reservation, or something".  
+The outside of the hotel is dilapidated.  However, some effort has been put into upgrading the lobby.  They haven't yet gotten to upgrading the gym.  
+The phone in the room made a horrible noise and needs to be replaced.  I'm pretty sure they're lots of great people that work here that provide Marriott quality service, it just so happened that my interaction was with a couple folks that should not be in the hospitality industry.   
+I would not recommend this hotel and probably...If you're a stickler for manners and professionalism, this may not be the place for you.   The young lady that checked me in was way too unprofessional and there was no acknowledgment of my Marriott loyalty.  Then she promptly proceeded to tell me that I could not check out late, even though I did not ask, and even though it is a benefit of my Rewards account with Marriott.   I took care of the late check out issue the following day with someone else, who was much more professional.  Unfortunately however, in spite of my having the 'do not disturb' sign out, house keeping came knocking at 8:30 AM and then again at 3:30 PM(opening the door this time), interrupting business calls on both occasions.  I literally was walking out the room at 4:03 when, guess who, the same unprofessional young lady from the day before, called to rudely ask "if I had another reservation, or something".  The outside of the hotel is dilapidated.  However, some effort has been put into upgrading the lobby.  They haven't yet gotten to upgrading the gym.  The phone in the room made a horrible noise and needs to be replaced.  I'm pretty sure they're lots of great people that work here that provide Marriott quality service, it just so happened that my interaction was with a couple folks that should not be in the hospitality industry.   I would not recommend this hotel and probably won't stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r455953494-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>455953494</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>Great hotel and location</t>
+  </si>
+  <si>
+    <t>Nice location with plenty of restaurants around, my room was clean, service was friendly, check-in &amp; out were smooth... My room also had a small fridge. Breakfast was not included, but the on-site bistro was great.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r452662633-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452662633</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Place was good for the right price. Looks clean and staff was helpful. They have the usual accomodations like small refrigerator, tv and free wifi...They have swimming pool and fitness center. In house American Restaurant is open at 7:30 am for breakfast till 11pm and opens again at 5pm to 10 pm I think for dinner. Plenty of restaurants nearby too and a shell gas station. Won't mind coming back to this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Place was good for the right price. Looks clean and staff was helpful. They have the usual accomodations like small refrigerator, tv and free wifi...They have swimming pool and fitness center. In house American Restaurant is open at 7:30 am for breakfast till 11pm and opens again at 5pm to 10 pm I think for dinner. Plenty of restaurants nearby too and a shell gas station. Won't mind coming back to this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r452207909-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452207909</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>Friendliest Staff</t>
+  </si>
+  <si>
+    <t>Everyone that works at the hotel, front desk both at check in and check out, staff in the Starbucks coffee bar and snack bar were so friendly.  Always a smile and always ready to answer questions or help in any and every way!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Everyone that works at the hotel, front desk both at check in and check out, staff in the Starbucks coffee bar and snack bar were so friendly.  Always a smile and always ready to answer questions or help in any and every way!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r450434976-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450434976</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>I don't usually patronize a Courtyard because everything costs money including breakfast but we thought as Platinum members, we might get some perks. Not so, but no matter because it was close to the place we wanted to go that evening. The hotel was clean and upscale as most Courtyards are.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r443336489-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443336489</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Not a scenic location but a good hotel</t>
+  </si>
+  <si>
+    <t>Although not in the most salubrious area of Houston this hotel is close to a few eating options, filling station and a shop. Not to mention a drive-thru ATM! My room was large and the on-site Bistro was a pleasant place to be talking with other travellers, the evening went quickly. Food and beer prices were reasonable and the food freshly prepared and tasty. My corner room was enormous and the aicon was very efficient for the sweltering heat. The cooked to order breakfast was nicely done and quickly delivered and the outdoor pool in the courtyard a cooling place to enjoy the heat, and the water! As a Marriott member I redeeemed here, and it's great value as a category 1 hotel. Nothing at all wrong with this place. I would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Although not in the most salubrious area of Houston this hotel is close to a few eating options, filling station and a shop. Not to mention a drive-thru ATM! My room was large and the on-site Bistro was a pleasant place to be talking with other travellers, the evening went quickly. Food and beer prices were reasonable and the food freshly prepared and tasty. My corner room was enormous and the aicon was very efficient for the sweltering heat. The cooked to order breakfast was nicely done and quickly delivered and the outdoor pool in the courtyard a cooling place to enjoy the heat, and the water! As a Marriott member I redeeemed here, and it's great value as a category 1 hotel. Nothing at all wrong with this place. I would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r442618674-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442618674</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>I decided on this hotel last minute after Thanksgiving. I used the mobile check in option and my room was ready pretty early. I arrived at the hotel and the front desk rep was so friendly and cheerful. She checked my in right away but got to the door and the key didn't work. Not an issue, it happens. The room was comfortable, facing the pool and away from 610. The room was spotless, as was the bathroom. I usually ask for extra towels and within minutes of entering the room, house keeping dropped off a few extras for me. Everyone at this hotel was pleasant and very friendly. I was only there for one night but still got a good night rest as the be was comfortable. I'll definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>I decided on this hotel last minute after Thanksgiving. I used the mobile check in option and my room was ready pretty early. I arrived at the hotel and the front desk rep was so friendly and cheerful. She checked my in right away but got to the door and the key didn't work. Not an issue, it happens. The room was comfortable, facing the pool and away from 610. The room was spotless, as was the bathroom. I usually ask for extra towels and within minutes of entering the room, house keeping dropped off a few extras for me. Everyone at this hotel was pleasant and very friendly. I was only there for one night but still got a good night rest as the be was comfortable. I'll definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r438413921-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438413921</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t>Wedding</t>
+  </si>
+  <si>
+    <t>Amazing service and wonderful bar ladies. Keep up the good work and customer service with a smile. Thank you all for making it comfortable and accommodating. Fresh towels and linen and new supply of goodies every amMoreShow less</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Amazing service and wonderful bar ladies. Keep up the good work and customer service with a smile. Thank you all for making it comfortable and accommodating. Fresh towels and linen and new supply of goodies every amMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r436255350-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436255350</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Great Visit</t>
+  </si>
+  <si>
+    <t>I had to stay at this Courtyard for two nights for work and they were a breath of fresh air here. The front desk workers were so accommodating and helpful! The bistro worker Valencia was awesome! She made great food and was also very friendly and accommodating. I've had a great experience and would highly recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had to stay at this Courtyard for two nights for work and they were a breath of fresh air here. The front desk workers were so accommodating and helpful! The bistro worker Valencia was awesome! She made great food and was also very friendly and accommodating. I've had a great experience and would highly recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r434255041-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434255041</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice stay  </t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for two nights for a business. Rosita was amazingly nice since the beginning, also the housekeepers they were super nice. They don't have room service though. But other than that it was a nice stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for two nights for a business. Rosita was amazingly nice since the beginning, also the housekeepers they were super nice. They don't have room service though. But other than that it was a nice stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r431819836-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431819836</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Extremely rude employee at the Bistro.  Below average room.</t>
+  </si>
+  <si>
+    <t>I was staying here with my 11 year old son.  I asked to see the kids menu.  The Bistro employee didn't look and handed me a regular menu, twice.  Finally got the kids menu and ordered a kids french toast and fresh fruit for my son.  God knows why, but she looked at me and proceeded to warn me and my son that the french toast would not come with powdered sugar like the adult one.  Sugar!  I said this was a bit ridiculous, and was going to still order it, but her attitude of total disrespect.  She then got in a shouting match with me, and said that her coworker had her back.  I then went to the front desk to make a complaint.  She followed me there and more arguing and shouting (all in front of my son).  I asked the person at the front desk if I could speak to the manager.  The person handed me a business card.  I went back to my room and looked at the card and it had the phone number/address of the hotel, but no name!  Few other complaints:   mattresses were old and saggy, water didn't drain in the shower, and mosquitoes in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I was staying here with my 11 year old son.  I asked to see the kids menu.  The Bistro employee didn't look and handed me a regular menu, twice.  Finally got the kids menu and ordered a kids french toast and fresh fruit for my son.  God knows why, but she looked at me and proceeded to warn me and my son that the french toast would not come with powdered sugar like the adult one.  Sugar!  I said this was a bit ridiculous, and was going to still order it, but her attitude of total disrespect.  She then got in a shouting match with me, and said that her coworker had her back.  I then went to the front desk to make a complaint.  She followed me there and more arguing and shouting (all in front of my son).  I asked the person at the front desk if I could speak to the manager.  The person handed me a business card.  I went back to my room and looked at the card and it had the phone number/address of the hotel, but no name!  Few other complaints:   mattresses were old and saggy, water didn't drain in the shower, and mosquitoes in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r414394148-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>414394148</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>Staff was friendly, helpful. Room keys were ready and check-in was less than 30 seconds. Slept very well in comfortable bed.  Blackout curtains that actually closed completely without a separate clip were great!  Easy to use AC thermostat.  Lights had been turned on for us; a nice welcome to our room.  Newly refurbished room with comfortable bed.  Convenient to freeway but I did not notice road noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Staff was friendly, helpful. Room keys were ready and check-in was less than 30 seconds. Slept very well in comfortable bed.  Blackout curtains that actually closed completely without a separate clip were great!  Easy to use AC thermostat.  Lights had been turned on for us; a nice welcome to our room.  Newly refurbished room with comfortable bed.  Convenient to freeway but I did not notice road noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r412497139-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412497139</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Service above and beyond!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for four nights last week and the staff and facility were first rate.  I'm a paraplegic in a wheelchair, and on Saturday AM when I had a medical issue that needed immediate attention the staff (Laquetta, Marc &amp; Rosa) jumped into action, got me to an ER in minutes, and the problem was solved before it escalated.  That level of service is way above and beyond the norm!  I'll now stay exclusively at this hotel whenever I come to Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for four nights last week and the staff and facility were first rate.  I'm a paraplegic in a wheelchair, and on Saturday AM when I had a medical issue that needed immediate attention the staff (Laquetta, Marc &amp; Rosa) jumped into action, got me to an ER in minutes, and the problem was solved before it escalated.  That level of service is way above and beyond the norm!  I'll now stay exclusively at this hotel whenever I come to Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r408230742-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>408230742</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Visiting Family</t>
+  </si>
+  <si>
+    <t>While in Huston visiting Family. The wife and I stayed at this hotel for 3 night. I would stay again, staff was friendly and helpful. The room was nice and clean. This is an old hotel but very nice and quiet. They have bottle water for sale in the bathroom of your room, which is very over priced. There is a frig in the room, but no microwave. The microwave is locted in the lobby by the front desk. The cafe food in the lobby was great but prices are not cheap nor expensive. I would defently stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>While in Huston visiting Family. The wife and I stayed at this hotel for 3 night. I would stay again, staff was friendly and helpful. The room was nice and clean. This is an old hotel but very nice and quiet. They have bottle water for sale in the bathroom of your room, which is very over priced. There is a frig in the room, but no microwave. The microwave is locted in the lobby by the front desk. The cafe food in the lobby was great but prices are not cheap nor expensive. I would defently stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r395292013-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395292013</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Another nice stay at Courtyard</t>
+  </si>
+  <si>
+    <t>I am here in a business trip. The people in the front they always treat you very nice. The guys in the bistro are pretty good as well. They are always looking for you and they make sure you get everything for your breakfast. I will try to comeback whenever I have the chance to come to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am here in a business trip. The people in the front they always treat you very nice. The guys in the bistro are pretty good as well. They are always looking for you and they make sure you get everything for your breakfast. I will try to comeback whenever I have the chance to come to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r394764676-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394764676</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>BEST customer service ever</t>
+  </si>
+  <si>
+    <t>I just want to give a special shout out to Chandra Perry as she handled taking care of getting all my Briones Family a room this past weekend, even the ones that came in last minute. I also want to give a special, special shout out and thank you to ROSA RIVERA at the front desk. She was bilingual, which was a plus with some of my family and she was just very helpful to all of us and got us what we needed at all times.MoreShow less</t>
+  </si>
+  <si>
+    <t>I just want to give a special shout out to Chandra Perry as she handled taking care of getting all my Briones Family a room this past weekend, even the ones that came in last minute. I also want to give a special, special shout out and thank you to ROSA RIVERA at the front desk. She was bilingual, which was a plus with some of my family and she was just very helpful to all of us and got us what we needed at all times.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r393316111-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393316111</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Courtyard Brookhollow and I really enjoyed my stay. I first stayed on June 9 and most recently again on July 13-14. The team they have at this hotel always make sure to make you feel welcome and are eager to help when they can. During my most recent stay I asked if I could possibly upgrade to a room with more space and that was handled with a smile. One day I left my room around 2:00pm and asked if it would be possible to have housekeeping clean my room, no problem. Cafe team took care of me with a smile and Rosa and Chandra always said hello and goodbye. This hotel is now my hotel of choice when I visit the Houston area!MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Courtyard Brookhollow and I really enjoyed my stay. I first stayed on June 9 and most recently again on July 13-14. The team they have at this hotel always make sure to make you feel welcome and are eager to help when they can. During my most recent stay I asked if I could possibly upgrade to a room with more space and that was handled with a smile. One day I left my room around 2:00pm and asked if it would be possible to have housekeeping clean my room, no problem. Cafe team took care of me with a smile and Rosa and Chandra always said hello and goodbye. This hotel is now my hotel of choice when I visit the Houston area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r375544420-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375544420</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place to stay </t>
+  </si>
+  <si>
+    <t>Meets the Courtyard Standard. Good comfortable room with nice staff. Hotel was clean at every turn and convenient parking right outside my door. Not an area to walk around and find places to eat, especially late. I would stay here again without reservation. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Meets the Courtyard Standard. Good comfortable room with nice staff. Hotel was clean at every turn and convenient parking right outside my door. Not an area to walk around and find places to eat, especially late. I would stay here again without reservation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r374691676-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374691676</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Poor value - questionable business practices</t>
+  </si>
+  <si>
+    <t>This is typical of the Courtyard Marriott chain.  An older facility with some refurbishment. The rooms and bathrooms are small by todays standards.  Most facilities in this class of motel now offer free breakfast as part of the package, but the Courtyard sells you an overpriced breakfast.
+My main concern was with the Bistro.  They serve breakfast and light supper items that are prepackaged and heated up.  The food is not bad, but it is significantly over priced. I this location, the cash register was programed to charge between $.25 to $1.25 higher than the posted prices.  I happened to catch this fairly early in the stay and they would get the manager and credit my card for the difference.  However, I watched several other guests make a purchase and not once did they mention the discrepancy. I continued to purchase food over a 3 day period and had by bill corrected by the manager and they continued to over charge the other guests. This borders on larceny and clearly bad business practices.  Management did nothing to correct the circumstance.  Finally they served me a spinach salad with rotten spinach so I quit buying anything there and purchased everything off premises.
+While the room had been renovated, the bathroom was tired and the room smelled musty.  I expect the air conditioner condenser was moldy or dirty.
+The only reason for 2 stars is that the housekeeping people did a very...This is typical of the Courtyard Marriott chain.  An older facility with some refurbishment. The rooms and bathrooms are small by todays standards.  Most facilities in this class of motel now offer free breakfast as part of the package, but the Courtyard sells you an overpriced breakfast.My main concern was with the Bistro.  They serve breakfast and light supper items that are prepackaged and heated up.  The food is not bad, but it is significantly over priced. I this location, the cash register was programed to charge between $.25 to $1.25 higher than the posted prices.  I happened to catch this fairly early in the stay and they would get the manager and credit my card for the difference.  However, I watched several other guests make a purchase and not once did they mention the discrepancy. I continued to purchase food over a 3 day period and had by bill corrected by the manager and they continued to over charge the other guests. This borders on larceny and clearly bad business practices.  Management did nothing to correct the circumstance.  Finally they served me a spinach salad with rotten spinach so I quit buying anything there and purchased everything off premises.While the room had been renovated, the bathroom was tired and the room smelled musty.  I expect the air conditioner condenser was moldy or dirty.The only reason for 2 stars is that the housekeeping people did a very good job cleaning daily.This place survives on business travelers with expense accounts, but I won't stay at another Courtyard brand.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is typical of the Courtyard Marriott chain.  An older facility with some refurbishment. The rooms and bathrooms are small by todays standards.  Most facilities in this class of motel now offer free breakfast as part of the package, but the Courtyard sells you an overpriced breakfast.
+My main concern was with the Bistro.  They serve breakfast and light supper items that are prepackaged and heated up.  The food is not bad, but it is significantly over priced. I this location, the cash register was programed to charge between $.25 to $1.25 higher than the posted prices.  I happened to catch this fairly early in the stay and they would get the manager and credit my card for the difference.  However, I watched several other guests make a purchase and not once did they mention the discrepancy. I continued to purchase food over a 3 day period and had by bill corrected by the manager and they continued to over charge the other guests. This borders on larceny and clearly bad business practices.  Management did nothing to correct the circumstance.  Finally they served me a spinach salad with rotten spinach so I quit buying anything there and purchased everything off premises.
+While the room had been renovated, the bathroom was tired and the room smelled musty.  I expect the air conditioner condenser was moldy or dirty.
+The only reason for 2 stars is that the housekeeping people did a very...This is typical of the Courtyard Marriott chain.  An older facility with some refurbishment. The rooms and bathrooms are small by todays standards.  Most facilities in this class of motel now offer free breakfast as part of the package, but the Courtyard sells you an overpriced breakfast.My main concern was with the Bistro.  They serve breakfast and light supper items that are prepackaged and heated up.  The food is not bad, but it is significantly over priced. I this location, the cash register was programed to charge between $.25 to $1.25 higher than the posted prices.  I happened to catch this fairly early in the stay and they would get the manager and credit my card for the difference.  However, I watched several other guests make a purchase and not once did they mention the discrepancy. I continued to purchase food over a 3 day period and had by bill corrected by the manager and they continued to over charge the other guests. This borders on larceny and clearly bad business practices.  Management did nothing to correct the circumstance.  Finally they served me a spinach salad with rotten spinach so I quit buying anything there and purchased everything off premises.While the room had been renovated, the bathroom was tired and the room smelled musty.  I expect the air conditioner condenser was moldy or dirty.The only reason for 2 stars is that the housekeeping people did a very good job cleaning daily.This place survives on business travelers with expense accounts, but I won't stay at another Courtyard brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r371938382-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371938382</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Great Courtyard!</t>
+  </si>
+  <si>
+    <t>Great Courtyard by Marriott.  Fantastic Staff at check in.  Very clean and comfortable rooms.  Nice Bistro area as well and fantastically fast Wifi connection too - very fast.  Restaurants within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great Courtyard by Marriott.  Fantastic Staff at check in.  Very clean and comfortable rooms.  Nice Bistro area as well and fantastically fast Wifi connection too - very fast.  Restaurants within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r363761977-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363761977</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>Just OK</t>
+  </si>
+  <si>
+    <t>Stayed one night for business.  Hotel is right off the freeway.  Not the most attractive neighborhood, nor is this Courtyard attractive from the outside.  The lobby area and rooms are typical of the remodeled Courtyard style.  Functional and satisfactory.  There was a mix up on my rate at check in, and again at check out.  Both times it was cheerfully resolved, but a nuisance nonetheless.  If in the area again, I'd consider the Sheraton property a few buildings down.  It was much nicer inside and comparably priced.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Stayed one night for business.  Hotel is right off the freeway.  Not the most attractive neighborhood, nor is this Courtyard attractive from the outside.  The lobby area and rooms are typical of the remodeled Courtyard style.  Functional and satisfactory.  There was a mix up on my rate at check in, and again at check out.  Both times it was cheerfully resolved, but a nuisance nonetheless.  If in the area again, I'd consider the Sheraton property a few buildings down.  It was much nicer inside and comparably priced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r343209798-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343209798</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I really enjoyed this location on my buisness trip to houston the staff was wonderful especially the young lady Joi she was very friendly and helpful the room was very nice as well all in all a great stayMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I really enjoyed this location on my buisness trip to houston the staff was wonderful especially the young lady Joi she was very friendly and helpful the room was very nice as well all in all a great stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r343090886-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343090886</t>
+  </si>
+  <si>
+    <t>Exceptional Customer</t>
+  </si>
+  <si>
+    <t>I recently visited this location with a huge group of my colleagues from New Orleans and I would like to shine a spotlight on a beautiful young lady that was helpful, kind, and very knowledgeable not only of the business but the surrounding areas to give me ideas of what to do in my personal time. Joi was professional and seemed to have all the answers when I needed them. Thanks to Joi this made my transition an easy one.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently visited this location with a huge group of my colleagues from New Orleans and I would like to shine a spotlight on a beautiful young lady that was helpful, kind, and very knowledgeable not only of the business but the surrounding areas to give me ideas of what to do in my personal time. Joi was professional and seemed to have all the answers when I needed them. Thanks to Joi this made my transition an easy one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r312328372-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>312328372</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Doing your Job, is all we ask!</t>
+  </si>
+  <si>
+    <t>Sometimes just doing your job is more than enough. Thank You Taneshia for doing just that!!!! Great customer service! I really appreciate the fast check in and your proffesionalism. You are truly a fine representation of the Marriott brand!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Sometimes just doing your job is more than enough. Thank You Taneshia for doing just that!!!! Great customer service! I really appreciate the fast check in and your proffesionalism. You are truly a fine representation of the Marriott brand!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r307182461-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>307182461</t>
+  </si>
+  <si>
+    <t>09/05/2015</t>
+  </si>
+  <si>
+    <t>Good Courtyard</t>
+  </si>
+  <si>
+    <t>As an experienced Courtyard guest (Gold Elite) I believe this one is above average. Note-my expectation standards for any Marriott property are high and that consistency is part of what I value- no big surprises.This Courtyard offered Friendly efficient check in, good parking, clean inviting Bistro, nicer than average pool, and well stocked mini Market.Housekeeping was perfect in accommodating our request for extra pillows, shampoo, and coffee.There are alternative restaurants to walk to and some great ones within a 10 minute drive.For the price, this was a good choice and would return.MoreShow less</t>
+  </si>
+  <si>
+    <t>As an experienced Courtyard guest (Gold Elite) I believe this one is above average. Note-my expectation standards for any Marriott property are high and that consistency is part of what I value- no big surprises.This Courtyard offered Friendly efficient check in, good parking, clean inviting Bistro, nicer than average pool, and well stocked mini Market.Housekeeping was perfect in accommodating our request for extra pillows, shampoo, and coffee.There are alternative restaurants to walk to and some great ones within a 10 minute drive.For the price, this was a good choice and would return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r303507909-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303507909</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Its just ok</t>
+  </si>
+  <si>
+    <t>Its an avg hotel. Nothing special. I was not crazy about the location, Room was clean and bed was nice. Bar closed way to early. The people were very friendly. Lots of parking and close to the freeway.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r296974547-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296974547</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>Hotel is a little off the path from where I was working but I entered in to a very nice clean hotel with a great cafe in there in which they serve Starbuck coffee and breakfast and dinner.  Pretty quiet during the day.  Nice open courtyard for swimming for the kiddos.  Small gym.  The only drawback is there are only 2 restaurants within walking distance to the hotel a Mexican restaurant and a Po-Boy shop across the street, which also happens to be next to an adult entertainment establishment, Solid Platinum.  I was taken back by this but I had no issues, no loud noises or no disturbances from the individuals attending the business.  Very nice hotel overall, but wanted to let you know what is around the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded August 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2015</t>
+  </si>
+  <si>
+    <t>Hotel is a little off the path from where I was working but I entered in to a very nice clean hotel with a great cafe in there in which they serve Starbuck coffee and breakfast and dinner.  Pretty quiet during the day.  Nice open courtyard for swimming for the kiddos.  Small gym.  The only drawback is there are only 2 restaurants within walking distance to the hotel a Mexican restaurant and a Po-Boy shop across the street, which also happens to be next to an adult entertainment establishment, Solid Platinum.  I was taken back by this but I had no issues, no loud noises or no disturbances from the individuals attending the business.  Very nice hotel overall, but wanted to let you know what is around the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r296607574-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296607574</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>This Courtyard is OK... not bad not Great.</t>
+  </si>
+  <si>
+    <t>This Courtyard is OK... not bad not Great.  For the price I paid I expected it to be maybe a little nicer but again it was not a bad spot....... just ok.  the restaurant / bar was nice and clean although a little pricey.  NOTE: below the meter would not allow me to select anything better than Average although the staff was Great!MoreShow less</t>
+  </si>
+  <si>
+    <t>This Courtyard is OK... not bad not Great.  For the price I paid I expected it to be maybe a little nicer but again it was not a bad spot....... just ok.  the restaurant / bar was nice and clean although a little pricey.  NOTE: below the meter would not allow me to select anything better than Average although the staff was Great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r296558287-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296558287</t>
+  </si>
+  <si>
+    <t>The best courtyard in Houston</t>
+  </si>
+  <si>
+    <t>I've stayed at several Marriott's; especially in the Houston area. This experience has been one of the best. Check was quick &amp; smooth. The staff was pleasant and efficient.The only downside is that although the location is perfect for getting downtown and only 5 minutes from the Galleria, the hotel can be difficult to get to if you're not familiar with Houston streets.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed at several Marriott's; especially in the Houston area. This experience has been one of the best. Check was quick &amp; smooth. The staff was pleasant and efficient.The only downside is that although the location is perfect for getting downtown and only 5 minutes from the Galleria, the hotel can be difficult to get to if you're not familiar with Houston streets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r291883066-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291883066</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Big room, a/c was nuclear-powered (thanks!), nice pool</t>
+  </si>
+  <si>
+    <t>I stayed for business and we had a business dinner.  In the morning I looked out the back of the breakfast area and saw this incredible outdoor pool with umbrellas and deck chairs.  I thought I was in Orlando!  That was my one regret--not kicking back out there.  The rooms are very large, internet works fine, classy.  I've stayed here before and this is where I stay in Houston.  Staff is very friendly.  Surface (free) parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>I stayed for business and we had a business dinner.  In the morning I looked out the back of the breakfast area and saw this incredible outdoor pool with umbrellas and deck chairs.  I thought I was in Orlando!  That was my one regret--not kicking back out there.  The rooms are very large, internet works fine, classy.  I've stayed here before and this is where I stay in Houston.  Staff is very friendly.  Surface (free) parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r291465585-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291465585</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Clean rooms, great staff!</t>
+  </si>
+  <si>
+    <t>I have stayed at this property twice and both times was not disappointed. The rooms are always clean and as they should be. The staff at this property make a huge difference in their friendly manner. Staff was very helpful in locating any items I may need. Food is good at the Bistro, but it is only open for breakfast and dinner. Across the street there is a great place called Juanita's Mexican, food is very good and reasonably priced.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this property twice and both times was not disappointed. The rooms are always clean and as they should be. The staff at this property make a huge difference in their friendly manner. Staff was very helpful in locating any items I may need. Food is good at the Bistro, but it is only open for breakfast and dinner. Across the street there is a great place called Juanita's Mexican, food is very good and reasonably priced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r289356851-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289356851</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not what I expected from a Marriott </t>
+  </si>
+  <si>
+    <t>Room was clean. Comfortable beds. Closet door was broken, but I called front desk and they fixed it the next day. It was a decent stay but pretty noisy. Walls seemed thin as we could hear conversations in next rooms. Also, if you plan on needing sleep, request a room away from the pool area. I feel the hotel should have shut that area down where people could not be out by the pool after 10:00 pm. We stayed for 4 nights and 3 of the 4 nights there was loud conversation way after 10:00. Hotel management should've monitored that better. MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was clean. Comfortable beds. Closet door was broken, but I called front desk and they fixed it the next day. It was a decent stay but pretty noisy. Walls seemed thin as we could hear conversations in next rooms. Also, if you plan on needing sleep, request a room away from the pool area. I feel the hotel should have shut that area down where people could not be out by the pool after 10:00 pm. We stayed for 4 nights and 3 of the 4 nights there was loud conversation way after 10:00. Hotel management should've monitored that better. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r277672424-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277672424</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Service makes up for</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised after booking this hotel through Priceline.  This hotel was very nice and clean and a great value.  Although breakfast was not included, the restaurant in the hotel was very contemporary and fun and had very good menu items.   There were not a lot of kids running around.  Actually I didn't see any.  The whole hotel was trendy and very well maintained. Michael the front desk Manager was excellent!   He went above and beyond to assure we were satisfied.  Michael was very accommodating when my very picky husband expressed concern about being placed in a handicapped room.  He offered us a room upgrade for the same price.  I was very happy with the professionalism and over-whelming sense of customer service from Michael. I was very happy with this hotel stay.  It really confirmed my confidence in the Marriott brand.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised after booking this hotel through Priceline.  This hotel was very nice and clean and a great value.  Although breakfast was not included, the restaurant in the hotel was very contemporary and fun and had very good menu items.   There were not a lot of kids running around.  Actually I didn't see any.  The whole hotel was trendy and very well maintained. Michael the front desk Manager was excellent!   He went above and beyond to assure we were satisfied.  Michael was very accommodating when my very picky husband expressed concern about being placed in a handicapped room.  He offered us a room upgrade for the same price.  I was very happy with the professionalism and over-whelming sense of customer service from Michael. I was very happy with this hotel stay.  It really confirmed my confidence in the Marriott brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r271343691-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271343691</t>
+  </si>
+  <si>
+    <t>05/11/2015</t>
+  </si>
+  <si>
+    <t>Wedding Time</t>
+  </si>
+  <si>
+    <t>The hotel was nice. The staff was so accommodating and so nice. The rooms were a bit tad on the old vibe but were nice. We had a shuttle that took us to the wedding we were attending which was awesome.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r267639081-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267639081</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel, Excellent Staff</t>
+  </si>
+  <si>
+    <t>First, many thanks to Jordan and Tanisha and the rest of the front desk staff who helped make our stay as close to perfect as possible.  We drove from Chicago during a time that was stormy on our way down and we had to change our reservations several times.  The cooperation was fantastic.Once there, our room was clean. comfortable, and spacious.  With a much activity as was going on, we were surprised how quiet our room was.  Being right off the pool was nice too.Having a place for hot food for breakfast, lunch, and dinner on site was a big plus.  We had stayed at this hotel a few years ago when this was not available and this is great when you don't feel like going out.  It is a little pricey though, and akin to Starbucks for beverages.  They do have a small market place for microwave items, soda, beer &amp; wine. Because of all of the stormy weather, we found ourselves taking advantage of all of the options.MoreShow less</t>
+  </si>
+  <si>
+    <t>First, many thanks to Jordan and Tanisha and the rest of the front desk staff who helped make our stay as close to perfect as possible.  We drove from Chicago during a time that was stormy on our way down and we had to change our reservations several times.  The cooperation was fantastic.Once there, our room was clean. comfortable, and spacious.  With a much activity as was going on, we were surprised how quiet our room was.  Being right off the pool was nice too.Having a place for hot food for breakfast, lunch, and dinner on site was a big plus.  We had stayed at this hotel a few years ago when this was not available and this is great when you don't feel like going out.  It is a little pricey though, and akin to Starbucks for beverages.  They do have a small market place for microwave items, soda, beer &amp; wine. Because of all of the stormy weather, we found ourselves taking advantage of all of the options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r260370716-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260370716</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Great hotel and staff</t>
+  </si>
+  <si>
+    <t>This hotel has a great staff and very accommodating. There is a Starbucks along with a snack/breakfast bar.  There is seating with cable tvs at some of the booths.  Extremely comfortable beds.  This is a great value for the location (right off highway and close to airport).MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded April 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2015</t>
+  </si>
+  <si>
+    <t>This hotel has a great staff and very accommodating. There is a Starbucks along with a snack/breakfast bar.  There is seating with cable tvs at some of the booths.  Extremely comfortable beds.  This is a great value for the location (right off highway and close to airport).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r257613972-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257613972</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>Great staff but dirty room</t>
+  </si>
+  <si>
+    <t>I stayed at the Courtyard and like most Marriott properties it was nice in the lobby but the room was dirty. Someone clipped their toenails and they were visible on the carpet. The desk chair had dried food all over it  and the bathroom floor needed swept and mopped.  I am a Marriott frequent guest but am considering switching to Hilton as I did the following night. I may pay more but the cleanliness is worth it. They obviously do not inspect the rooms after housekeeping to insure their cleanliness. The staff however was very frindly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded March 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at the Courtyard and like most Marriott properties it was nice in the lobby but the room was dirty. Someone clipped their toenails and they were visible on the carpet. The desk chair had dried food all over it  and the bathroom floor needed swept and mopped.  I am a Marriott frequent guest but am considering switching to Hilton as I did the following night. I may pay more but the cleanliness is worth it. They obviously do not inspect the rooms after housekeeping to insure their cleanliness. The staff however was very frindly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r254098133-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254098133</t>
+  </si>
+  <si>
+    <t>02/14/2015</t>
+  </si>
+  <si>
+    <t>Ignore bad reviews, hotel is fine.</t>
+  </si>
+  <si>
+    <t>I use TripAdvisor every time I travel. I'm not sure why people are so down on this hotel, but it's fine. The decor is updated, location was great for what we needed to do. Not any construction that we could see. We did not choose to eat in the cute little snack/breakfast bar, but could have added it for three of us for only $10. I'm sure it's standard overpriced hotel fare, why would people expect more?The room (paid $10 more for a corner room) was clean and large. Room was quiet. Yes, you could hear doors closing as people went back in and out, but that stopped by 10. We've been visiting family in Houston for years and staying at the Springfield suites brookhollow. Their rate is up to $140 call compared to this rate if $109. We'll continue to come to this location, it was great. I didn't give it 5 stars because it's a standard 5 star hotel, but for the money it's a 5.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I use TripAdvisor every time I travel. I'm not sure why people are so down on this hotel, but it's fine. The decor is updated, location was great for what we needed to do. Not any construction that we could see. We did not choose to eat in the cute little snack/breakfast bar, but could have added it for three of us for only $10. I'm sure it's standard overpriced hotel fare, why would people expect more?The room (paid $10 more for a corner room) was clean and large. Room was quiet. Yes, you could hear doors closing as people went back in and out, but that stopped by 10. We've been visiting family in Houston for years and staying at the Springfield suites brookhollow. Their rate is up to $140 call compared to this rate if $109. We'll continue to come to this location, it was great. I didn't give it 5 stars because it's a standard 5 star hotel, but for the money it's a 5.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r248166677-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>248166677</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>An ok hotel with no good amenities.</t>
+  </si>
+  <si>
+    <t>We were there for a wedding in late December close to the hotel. It is an oriniary Marriott Courtyard compared to other same chain. The water bottle was $3.50 for a small bottle.The hotel was old and needs upgrade.The next morning, the bride's family paid for our breakfast but it was horrible and I took only one bite. It took us 1 hour to get our breakfast after ordering. What a horrible service.Some people had to go to the airport and left without breakfast.I would not stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded January 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2015</t>
+  </si>
+  <si>
+    <t>We were there for a wedding in late December close to the hotel. It is an oriniary Marriott Courtyard compared to other same chain. The water bottle was $3.50 for a small bottle.The hotel was old and needs upgrade.The next morning, the bride's family paid for our breakfast but it was horrible and I took only one bite. It took us 1 hour to get our breakfast after ordering. What a horrible service.Some people had to go to the airport and left without breakfast.I would not stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r240758870-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240758870</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>I will not stay here again!</t>
+  </si>
+  <si>
+    <t>The beds are not comfortable. They have glasses in the bathroom for drinking and I would rather have a new plastic cup because I am sure that cup is not properly cleaned. The bathroom does not have a blow drier. They charge you for the Ozark water in the room. You don't get a free complimentary breakfast. I would expect much more from them for $200 a night. We only used them because we were late to meeting up with family. We also had a hungry baby and child. We would have turned in the room key if we didn't need to leave asap for the kids. We was not able to locate the ice machine. The beds are only a full size. Blankets are very thin just like the walls. This is the first time I have gone through the trouble to leave a message review about anything! ! We still tipped the maid become she does a good job at cleaning the room. Room 322 MoreShow less</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded November 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2014</t>
+  </si>
+  <si>
+    <t>The beds are not comfortable. They have glasses in the bathroom for drinking and I would rather have a new plastic cup because I am sure that cup is not properly cleaned. The bathroom does not have a blow drier. They charge you for the Ozark water in the room. You don't get a free complimentary breakfast. I would expect much more from them for $200 a night. We only used them because we were late to meeting up with family. We also had a hungry baby and child. We would have turned in the room key if we didn't need to leave asap for the kids. We was not able to locate the ice machine. The beds are only a full size. Blankets are very thin just like the walls. This is the first time I have gone through the trouble to leave a message review about anything! ! We still tipped the maid become she does a good job at cleaning the room. Room 322 More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r239841990-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239841990</t>
+  </si>
+  <si>
+    <t>11/14/2014</t>
+  </si>
+  <si>
+    <t>undecided !</t>
+  </si>
+  <si>
+    <t>If you need a place to stay and can't find any other than this Courtyard will be OK.   In my opinion, while the age of the property and the location are two things that are somewhat beyond the control of the management there are certain things that can be done minimize the appearance of being 'old and tired'.   If you walk from through the parking lot to the front door and take the time to pay attention to the exterior you quickly see wood rot and sections of disrepair - these could be fixed with minimal expense.
+The lobby and restaurant are standard for the new Courtyard design.  The rooms have been updated but, it just might be me, but they just don't seem new.  The mattress in particular seemed like it was due for replacement.
+One last item, the thermostat on the wall didn't seem to be working.  I checked the actual AC/Heat unit, flipped up the little door and found the controls. They seemed to be working.  So, if you have to control the temperature in the room by walking to the actual unit why is there still a thermostat hanging on the wall?  Attention to detail is key for a hotel.  Heck, even is small card on the thermostat saying "Please make adjustments to the room temperature at the unit but the window" would have let me know that they cared.  Instead, the attitude I'm let with...If you need a place to stay and can't find any other than this Courtyard will be OK.   In my opinion, while the age of the property and the location are two things that are somewhat beyond the control of the management there are certain things that can be done minimize the appearance of being 'old and tired'.   If you walk from through the parking lot to the front door and take the time to pay attention to the exterior you quickly see wood rot and sections of disrepair - these could be fixed with minimal expense.The lobby and restaurant are standard for the new Courtyard design.  The rooms have been updated but, it just might be me, but they just don't seem new.  The mattress in particular seemed like it was due for replacement.One last item, the thermostat on the wall didn't seem to be working.  I checked the actual AC/Heat unit, flipped up the little door and found the controls. They seemed to be working.  So, if you have to control the temperature in the room by walking to the actual unit why is there still a thermostat hanging on the wall?  Attention to detail is key for a hotel.  Heck, even is small card on the thermostat saying "Please make adjustments to the room temperature at the unit but the window" would have let me know that they cared.  Instead, the attitude I'm let with is "the guest will figure it out and if they don't they'll probably just call the front desk and we can tell them."MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>If you need a place to stay and can't find any other than this Courtyard will be OK.   In my opinion, while the age of the property and the location are two things that are somewhat beyond the control of the management there are certain things that can be done minimize the appearance of being 'old and tired'.   If you walk from through the parking lot to the front door and take the time to pay attention to the exterior you quickly see wood rot and sections of disrepair - these could be fixed with minimal expense.
+The lobby and restaurant are standard for the new Courtyard design.  The rooms have been updated but, it just might be me, but they just don't seem new.  The mattress in particular seemed like it was due for replacement.
+One last item, the thermostat on the wall didn't seem to be working.  I checked the actual AC/Heat unit, flipped up the little door and found the controls. They seemed to be working.  So, if you have to control the temperature in the room by walking to the actual unit why is there still a thermostat hanging on the wall?  Attention to detail is key for a hotel.  Heck, even is small card on the thermostat saying "Please make adjustments to the room temperature at the unit but the window" would have let me know that they cared.  Instead, the attitude I'm let with...If you need a place to stay and can't find any other than this Courtyard will be OK.   In my opinion, while the age of the property and the location are two things that are somewhat beyond the control of the management there are certain things that can be done minimize the appearance of being 'old and tired'.   If you walk from through the parking lot to the front door and take the time to pay attention to the exterior you quickly see wood rot and sections of disrepair - these could be fixed with minimal expense.The lobby and restaurant are standard for the new Courtyard design.  The rooms have been updated but, it just might be me, but they just don't seem new.  The mattress in particular seemed like it was due for replacement.One last item, the thermostat on the wall didn't seem to be working.  I checked the actual AC/Heat unit, flipped up the little door and found the controls. They seemed to be working.  So, if you have to control the temperature in the room by walking to the actual unit why is there still a thermostat hanging on the wall?  Attention to detail is key for a hotel.  Heck, even is small card on the thermostat saying "Please make adjustments to the room temperature at the unit but the window" would have let me know that they cared.  Instead, the attitude I'm let with is "the guest will figure it out and if they don't they'll probably just call the front desk and we can tell them."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r234441889-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234441889</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>I stayed here for one night and was very disappointed.  The cost for the room was around $250 because there was a convention in town, altough the room was clean, it was not up to par with most of the other marriott hotels, the walls between the rooms are thin and I could hear the conversation from the next room,  and lastly the bed was very uncomfortable,  I felt the springs thru the mattress and wasn't comfortable. I would not stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded October 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for one night and was very disappointed.  The cost for the room was around $250 because there was a convention in town, altough the room was clean, it was not up to par with most of the other marriott hotels, the walls between the rooms are thin and I could hear the conversation from the next room,  and lastly the bed was very uncomfortable,  I felt the springs thru the mattress and wasn't comfortable. I would not stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r227050163-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>227050163</t>
+  </si>
+  <si>
+    <t>09/05/2014</t>
+  </si>
+  <si>
+    <t>Will Not Stay Here Again!</t>
+  </si>
+  <si>
+    <t>Have stayed @ CY Brookhollow many times,most recently over Labor Day weekend but never again. Experienced a pool party(30+ kids) until 11PM, workers trimming palm tree in courtyard before 7AM, computer blocking website for my local newspaper for 6 days. Front Desk was clueless, blamed it on vendor, did not offer to help.To top it off, no free coffee. Forced to pay outrageous price for Bistro Starbucks.Was told by front desk to make coffee in room using coffee maker stored in bathroom! At $160/nite, free coffee should not be a problem!Plenty of other chioces in area are better choices than this overpriced, worn out concept.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded September 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2014</t>
+  </si>
+  <si>
+    <t>Have stayed @ CY Brookhollow many times,most recently over Labor Day weekend but never again. Experienced a pool party(30+ kids) until 11PM, workers trimming palm tree in courtyard before 7AM, computer blocking website for my local newspaper for 6 days. Front Desk was clueless, blamed it on vendor, did not offer to help.To top it off, no free coffee. Forced to pay outrageous price for Bistro Starbucks.Was told by front desk to make coffee in room using coffee maker stored in bathroom! At $160/nite, free coffee should not be a problem!Plenty of other chioces in area are better choices than this overpriced, worn out concept.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r215073459-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215073459</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel - GREAT service</t>
+  </si>
+  <si>
+    <t>The service at this hotel is WONDERFUL.  We had a few little issues (broken ice machine, dirty shower) and they took care of everything. The staff is amazing - friendly, attentive, helpful. The rooms are comfortable, but are in need of some updating. The surrounding area is a little rough, but not scary. Bistro is a little pricy, but better than the Mexican joint or the strip club across the street. About 15 minutes from Minute Maid Park.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>The service at this hotel is WONDERFUL.  We had a few little issues (broken ice machine, dirty shower) and they took care of everything. The staff is amazing - friendly, attentive, helpful. The rooms are comfortable, but are in need of some updating. The surrounding area is a little rough, but not scary. Bistro is a little pricy, but better than the Mexican joint or the strip club across the street. About 15 minutes from Minute Maid Park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r207755800-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207755800</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights at this courtyard for a business trip.  Most of the Courtyards all look the same now, I like the food/bar options. The service was great and my room was very clean. I also used the gym and have no complaints.  My only issue with Courtyards is the pillows are awful, it takes 3 of them to make one like I use at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded June 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2014</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights at this courtyard for a business trip.  Most of the Courtyards all look the same now, I like the food/bar options. The service was great and my room was very clean. I also used the gym and have no complaints.  My only issue with Courtyards is the pillows are awful, it takes 3 of them to make one like I use at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r206670164-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206670164</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>Courtyard hotel that has been renovated - stuck in the middle of construction!</t>
+  </si>
+  <si>
+    <t>The good news is this hotel has a renovated public space and the breakfast area is quite busy with healthy oriented food and an efficient wait staff.  The public space has also been redesigned to allow for more interaction.The room was a standard Courtyard experience and the sink was part of the bathroom and not outside by the closet.This specific area as of May 2014 is smack in the middle of a major Houston freeway construction project.  It is accessible, but you will need to have a little patience.   The neighborhood has 2 nice restaurants directly across the street (Antones and Juanitas).MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>The good news is this hotel has a renovated public space and the breakfast area is quite busy with healthy oriented food and an efficient wait staff.  The public space has also been redesigned to allow for more interaction.The room was a standard Courtyard experience and the sink was part of the bathroom and not outside by the closet.This specific area as of May 2014 is smack in the middle of a major Houston freeway construction project.  It is accessible, but you will need to have a little patience.   The neighborhood has 2 nice restaurants directly across the street (Antones and Juanitas).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r205740809-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205740809</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Poor construction:Hear EVERYTHING</t>
+  </si>
+  <si>
+    <t>Two nights and cannot wait to check out. Staff super sweet, and clean BUT you can clearly hear your neighbors on both sides and above you. Not just where they are walking but their conversations as well as their tv's. People aren't being loud they are conducting themselves normally. The construction of the walls is horrible!!!! I am on the 2nd floor, it's sold out or I would request to move. The traffic is busy and my room is in the back of the hotel so I can hear the traffic very well.  Good location if you can get past the high inside and outside noise  level. MoreShow less</t>
+  </si>
+  <si>
+    <t>Two nights and cannot wait to check out. Staff super sweet, and clean BUT you can clearly hear your neighbors on both sides and above you. Not just where they are walking but their conversations as well as their tv's. People aren't being loud they are conducting themselves normally. The construction of the walls is horrible!!!! I am on the 2nd floor, it's sold out or I would request to move. The traffic is busy and my room is in the back of the hotel so I can hear the traffic very well.  Good location if you can get past the high inside and outside noise  level. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r198586507-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198586507</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>Business Trip in March</t>
+  </si>
+  <si>
+    <t>I was just in Houston the week of 3/11 - 3/14 for a business trip.  I once again chose to stay out at Brookhollow over the Sheraton and Marriott closer to the office due to the ability to escape the highway noise.  Unfortunately this time I was put on the front side of the building, but it wasn't terrible enough to ask to move.  Next time I'll know better.I do want to commend the staff: Mia and Jeanne in the evenings for providing great service as well as Jennifer in the morning for helping perfect my coffee protein smoothie each morning. Randy was also awesome at check-in to see if they had a blender and the ability to assist me with the smoothie before I ran out to the store to purchase the almond milk.The staff was exceptional!Michele@HudnallsHuddleMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>I was just in Houston the week of 3/11 - 3/14 for a business trip.  I once again chose to stay out at Brookhollow over the Sheraton and Marriott closer to the office due to the ability to escape the highway noise.  Unfortunately this time I was put on the front side of the building, but it wasn't terrible enough to ask to move.  Next time I'll know better.I do want to commend the staff: Mia and Jeanne in the evenings for providing great service as well as Jennifer in the morning for helping perfect my coffee protein smoothie each morning. Randy was also awesome at check-in to see if they had a blender and the ability to assist me with the smoothie before I ran out to the store to purchase the almond milk.The staff was exceptional!Michele@HudnallsHuddleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r189673513-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189673513</t>
+  </si>
+  <si>
+    <t>01/04/2014</t>
+  </si>
+  <si>
+    <t>New Years Eve 2013</t>
+  </si>
+  <si>
+    <t>Updated hotel. no problem checking in. Front staff was very nice. Room was very clean and everything looked good. We were asked what floor we preferred. I told the front desk that I wanted a very quiet room. So we were placed on the 3rd floor. Since it was New Year's Eve, we did not come back to our room until 3am. It was quiet for us and that is what we wanted. We slept well too. Bistro food was very good. The only drawback was the bathroom. It needs a total redesign....you take one step in and you are already at the toilet. Very very small bathroom. We don't know if all the rooms are like this one. Other than that, we will stay here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Updated hotel. no problem checking in. Front staff was very nice. Room was very clean and everything looked good. We were asked what floor we preferred. I told the front desk that I wanted a very quiet room. So we were placed on the 3rd floor. Since it was New Year's Eve, we did not come back to our room until 3am. It was quiet for us and that is what we wanted. We slept well too. Bistro food was very good. The only drawback was the bathroom. It needs a total redesign....you take one step in and you are already at the toilet. Very very small bathroom. We don't know if all the rooms are like this one. Other than that, we will stay here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r187268447-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187268447</t>
+  </si>
+  <si>
+    <t>12/10/2013</t>
+  </si>
+  <si>
+    <t>Well Pleased!</t>
+  </si>
+  <si>
+    <t>The hotels is in great shape.  The front desk staff was an easy to work with at check in and ready to accommodate the hotel stay.  The lodging room was very clean and smelled fresh! The location was great.  Several restaurants, banks, gas stations in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded December 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2013</t>
+  </si>
+  <si>
+    <t>The hotels is in great shape.  The front desk staff was an easy to work with at check in and ready to accommodate the hotel stay.  The lodging room was very clean and smelled fresh! The location was great.  Several restaurants, banks, gas stations in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r182271313-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182271313</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>This Marriott has a pleasant and helpful staff.  The building is well-maintained, the furnishings newer.  It was kept extremely clean and the room was quiet.  The cleaning staff are friendly and efficient.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>This Marriott has a pleasant and helpful staff.  The building is well-maintained, the furnishings newer.  It was kept extremely clean and the room was quiet.  The cleaning staff are friendly and efficient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r179816053-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179816053</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>Great Orel. Nice staff, clean and comfy.</t>
+  </si>
+  <si>
+    <t>Nice location. Didn't hear any road noise. Good construction, couldn't hear other rooms. Nicely maintained facility. Definitely recommend. Good fitness center. Nice courtyard for relaxing. Love the colors in the cafe. Rooms are comfortable with fridges and big tv's.MoreShow less</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded October 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2013</t>
+  </si>
+  <si>
+    <t>Nice location. Didn't hear any road noise. Good construction, couldn't hear other rooms. Nicely maintained facility. Definitely recommend. Good fitness center. Nice courtyard for relaxing. Love the colors in the cafe. Rooms are comfortable with fridges and big tv's.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r178949466-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178949466</t>
+  </si>
+  <si>
+    <t>09/28/2013</t>
+  </si>
+  <si>
+    <t>Evrything was top notch</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel at 8am on wednesday 9/25. We realized rooms might not be ready, but we were willing to give it a try, since we were very tired and did not mind paying an extra fee for early check in. Well, the room wasnt ready, but the front desk agent offered to give us a call as soon as one was available, which she did. We got a call at 12pm. When we got back, we were checked in by Leo, who was great, accomodating, kind and very sweer. He also called us when we were in the room to make sure we like it. We loved it! It was exactly what we expected. The only hiccup was on our last night, when i called down for shampoo, the front desk agent said 'i dont have anyone to bring them to u, but u can come get them urself'. I just sent my husband to get it, but it was a little awkawrd walking down in his pj to get shampoo because they are shirtstaffed (it was 8pm on a friday night).Overall, we would definetely stay here again, good access to freeways, nice pool (no hottub) and great service.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel at 8am on wednesday 9/25. We realized rooms might not be ready, but we were willing to give it a try, since we were very tired and did not mind paying an extra fee for early check in. Well, the room wasnt ready, but the front desk agent offered to give us a call as soon as one was available, which she did. We got a call at 12pm. When we got back, we were checked in by Leo, who was great, accomodating, kind and very sweer. He also called us when we were in the room to make sure we like it. We loved it! It was exactly what we expected. The only hiccup was on our last night, when i called down for shampoo, the front desk agent said 'i dont have anyone to bring them to u, but u can come get them urself'. I just sent my husband to get it, but it was a little awkawrd walking down in his pj to get shampoo because they are shirtstaffed (it was 8pm on a friday night).Overall, we would definetely stay here again, good access to freeways, nice pool (no hottub) and great service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r167355606-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167355606</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>Stayed in remodeled room - very nice but bring your own tea bags</t>
+  </si>
+  <si>
+    <t>Stayed for one night. Check in was fast and I had no problems. Stayed in a remodeled room and it was nice. The ice maker on my floor did not work but the one near the lobby did. Courtyard has recently changed so they no longer have free coffee in the lobby. They do have coffee in the room that you can make, but not tea. Had to pay $1 a bag to take tea bags back to the room.Other than that, the rest of my stay was great. I like the new food options especially the hummus. The servers were so helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Stayed for one night. Check in was fast and I had no problems. Stayed in a remodeled room and it was nice. The ice maker on my floor did not work but the one near the lobby did. Courtyard has recently changed so they no longer have free coffee in the lobby. They do have coffee in the room that you can make, but not tea. Had to pay $1 a bag to take tea bags back to the room.Other than that, the rest of my stay was great. I like the new food options especially the hummus. The servers were so helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r165783524-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165783524</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>The hotel smells mildewy and management is terrible!</t>
+  </si>
+  <si>
+    <t>I realized I had reservations for two marriott hotels which were right next door to each other. Its complicated but all I knew was I wasn't happy with this hotel!. I went to the front desk to check in and I was told because the Reward points we were using were in my husband's name he had to be present and show valid ID. I went to get my husband he came and presented the front desk clerk with his drivers license. The clerk ordered my husband to take off his sunglasses and looked my husband in the eyes then to his drivers license then handed the license back to my husband. We we got to the room I realized  I wasn't in a suite which I knew I had booked. (its too complicated to explain the mistake I made). As we are putting bags down in the room the front desk rings our room asking if we are comfortable with our room. I asked if there is complimentary breakfast he tells me no. I tell him I think I'm suppose to be at the Springhill Marriott. His response was, no this is the Courtyard Marriott. There is a big sign saying Courtyard when you pull up. Now I know this isn't where I wanted to book our stay. I go downstairs to the front desk and show the clerk I'm booked at two hotels. I'm suppose to have a...I realized I had reservations for two marriott hotels which were right next door to each other. Its complicated but all I knew was I wasn't happy with this hotel!. I went to the front desk to check in and I was told because the Reward points we were using were in my husband's name he had to be present and show valid ID. I went to get my husband he came and presented the front desk clerk with his drivers license. The clerk ordered my husband to take off his sunglasses and looked my husband in the eyes then to his drivers license then handed the license back to my husband. We we got to the room I realized  I wasn't in a suite which I knew I had booked. (its too complicated to explain the mistake I made). As we are putting bags down in the room the front desk rings our room asking if we are comfortable with our room. I asked if there is complimentary breakfast he tells me no. I tell him I think I'm suppose to be at the Springhill Marriott. His response was, no this is the Courtyard Marriott. There is a big sign saying Courtyard when you pull up. Now I know this isn't where I wanted to book our stay. I go downstairs to the front desk and show the clerk I'm booked at two hotels. I'm suppose to have a suite and complimentary breakfast. He tells me there is nothing he can do. I explained that the confusion came in when the 800# helped me book my room using my reward points. Still would not help me. I went back to the room and called the rewards line. The lady was willing to help me. She had me a room at the Springhill (next door) but the assistant GM at the Courtyard would not let my out of my reservation! He told the operator we had been in the room more than and hour so he couldn't. We definitely were not in that room for an hour. When I called downstairs and asked for his district manager's name and phone # he wanted to help then. So he supposedly called Springhill and the room was gone! I asked again for the district manager and I was told by the assistant GM he didn't know who that was and he didn't have a phone#. I sat on the phone for 2 hours trying to get the heck out of this hotel. Finally a kind gentleman at the rewards center listened to my problem. He cancelled my reservation without penalty fees with the Courtyard and checked us into the Springhill.MoreShow less</t>
+  </si>
+  <si>
+    <t>I realized I had reservations for two marriott hotels which were right next door to each other. Its complicated but all I knew was I wasn't happy with this hotel!. I went to the front desk to check in and I was told because the Reward points we were using were in my husband's name he had to be present and show valid ID. I went to get my husband he came and presented the front desk clerk with his drivers license. The clerk ordered my husband to take off his sunglasses and looked my husband in the eyes then to his drivers license then handed the license back to my husband. We we got to the room I realized  I wasn't in a suite which I knew I had booked. (its too complicated to explain the mistake I made). As we are putting bags down in the room the front desk rings our room asking if we are comfortable with our room. I asked if there is complimentary breakfast he tells me no. I tell him I think I'm suppose to be at the Springhill Marriott. His response was, no this is the Courtyard Marriott. There is a big sign saying Courtyard when you pull up. Now I know this isn't where I wanted to book our stay. I go downstairs to the front desk and show the clerk I'm booked at two hotels. I'm suppose to have a...I realized I had reservations for two marriott hotels which were right next door to each other. Its complicated but all I knew was I wasn't happy with this hotel!. I went to the front desk to check in and I was told because the Reward points we were using were in my husband's name he had to be present and show valid ID. I went to get my husband he came and presented the front desk clerk with his drivers license. The clerk ordered my husband to take off his sunglasses and looked my husband in the eyes then to his drivers license then handed the license back to my husband. We we got to the room I realized  I wasn't in a suite which I knew I had booked. (its too complicated to explain the mistake I made). As we are putting bags down in the room the front desk rings our room asking if we are comfortable with our room. I asked if there is complimentary breakfast he tells me no. I tell him I think I'm suppose to be at the Springhill Marriott. His response was, no this is the Courtyard Marriott. There is a big sign saying Courtyard when you pull up. Now I know this isn't where I wanted to book our stay. I go downstairs to the front desk and show the clerk I'm booked at two hotels. I'm suppose to have a suite and complimentary breakfast. He tells me there is nothing he can do. I explained that the confusion came in when the 800# helped me book my room using my reward points. Still would not help me. I went back to the room and called the rewards line. The lady was willing to help me. She had me a room at the Springhill (next door) but the assistant GM at the Courtyard would not let my out of my reservation! He told the operator we had been in the room more than and hour so he couldn't. We definitely were not in that room for an hour. When I called downstairs and asked for his district manager's name and phone # he wanted to help then. So he supposedly called Springhill and the room was gone! I asked again for the district manager and I was told by the assistant GM he didn't know who that was and he didn't have a phone#. I sat on the phone for 2 hours trying to get the heck out of this hotel. Finally a kind gentleman at the rewards center listened to my problem. He cancelled my reservation without penalty fees with the Courtyard and checked us into the Springhill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r160409395-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160409395</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>The room was clean but lobby was more of a hangout for young singles not for families. A guest was given our room and walked in with his own key while we were in the room. Front desk apologized but i remained uncomfortable. They were quick to give me a fridge and microwave when I asked.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded May 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2013</t>
+  </si>
+  <si>
+    <t>The room was clean but lobby was more of a hangout for young singles not for families. A guest was given our room and walked in with his own key while we were in the room. Front desk apologized but i remained uncomfortable. They were quick to give me a fridge and microwave when I asked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r159975358-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159975358</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Stayed at this location in the month of April 2013. My first impression or this hotel was horrible location, and old hotel. Well when you walk in to the lobby, everything is nice and modern, which was shocking. The front desk staff was nice and friendly, but put my friend and I in 1 king room, when we had called prior to arriving to make sure it was a double double. The gentleman that answered the phone assured me he switched my reservation to a double double. After walking all the way to the room, I found out it was a 1 King room. Luckily the front desk switched us over with no problem. Other than that slight problem everything else was okay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this location in the month of April 2013. My first impression or this hotel was horrible location, and old hotel. Well when you walk in to the lobby, everything is nice and modern, which was shocking. The front desk staff was nice and friendly, but put my friend and I in 1 king room, when we had called prior to arriving to make sure it was a double double. The gentleman that answered the phone assured me he switched my reservation to a double double. After walking all the way to the room, I found out it was a 1 King room. Luckily the front desk switched us over with no problem. Other than that slight problem everything else was okay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r152818813-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152818813</t>
+  </si>
+  <si>
+    <t>02/22/2013</t>
+  </si>
+  <si>
+    <t>Standard Mariott Courtyard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a standard Mariott and to be honest it's great place for business travelers as you need a clean and hospitable place to come back to !!! Breakfast is good and my only gripe is they charge you for your Starbucks coffee if your breakfast is included in your rate - bummer !! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r152773154-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152773154</t>
+  </si>
+  <si>
+    <t>Its Decent</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel from February 14-18. Front lobby is nice. Staff are courteous. Rooms are ok. Theres alot of construction going on around the hotel &amp; the views from the hotel are not that great. I was in town for NBA All Star Weekend, The hotel hide alot of people staying that that were smoking marijuana and just being loud. The hotel acknowledge this by sending all guests a letter apologizing for the noise. Would have loved a free night from it, but oh well.  I sat on the bed and the bed collapsed.  All in all for the price, the stay was worth it.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r148218811-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148218811</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>Lobby is nice, but that's it - read more below!</t>
+  </si>
+  <si>
+    <t>So, this hotel had a decent price and I tried to save a little money for my employer.  Location is a little out of the way, and not much to eat around the area that wasn't fast food. I drove quite a way to find something, but came back to stay the night.Staff was nice, lobby is nice, but the rooms are pretty outdated. That's fine I can deal with that, as I am sure renovations go through marriotts in cycles.Crazy thing was that I woke up and opened the blind to see that a car was sitting on all its rims. Someone had come and stolen someone's tires, completely. I called the front desk to let them know and it seemed like not a shock, something that might happen often.That let me know that this won't be a place I stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded March 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2013</t>
+  </si>
+  <si>
+    <t>So, this hotel had a decent price and I tried to save a little money for my employer.  Location is a little out of the way, and not much to eat around the area that wasn't fast food. I drove quite a way to find something, but came back to stay the night.Staff was nice, lobby is nice, but the rooms are pretty outdated. That's fine I can deal with that, as I am sure renovations go through marriotts in cycles.Crazy thing was that I woke up and opened the blind to see that a car was sitting on all its rims. Someone had come and stolen someone's tires, completely. I called the front desk to let them know and it seemed like not a shock, something that might happen often.That let me know that this won't be a place I stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r145228772-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145228772</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>poor hotel</t>
+  </si>
+  <si>
+    <t>The only thing good about the hotel is the excellent customer service.  The agent that greeted me was very helpful.  I did arrive too early but they did get me a room earlier than the normal check in time.   The bed was hard and the only way I could fall asleep was by taking sleeping pills.  Also the tv didn't work on the day I arrived.  No signal.  TV did work the next day which makes me believe they definitely had issues  The noise outside was very loud no matter where in the hotel u were located.  The hotel is right next to a busy intersection and the interstate (610).   There was construction and you can hear it too.   The construction was also an inconvenience because it caused me to make a detour to get on the interstate going southbound on 610.  The first night was fine but after that there were noisy rooms next door and across the hall.  They were completely disruptive.  Running down the halls.  The walls were paper thin.  I didn't have time nor the patience to call the front desk to complain.  I didn't want to make a fuss and have to move to another room.  I probably will not stay in this hotel again.  I will stay closer to downtown, galleria area and the pay the extra money for a nicer hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>The only thing good about the hotel is the excellent customer service.  The agent that greeted me was very helpful.  I did arrive too early but they did get me a room earlier than the normal check in time.   The bed was hard and the only way I could fall asleep was by taking sleeping pills.  Also the tv didn't work on the day I arrived.  No signal.  TV did work the next day which makes me believe they definitely had issues  The noise outside was very loud no matter where in the hotel u were located.  The hotel is right next to a busy intersection and the interstate (610).   There was construction and you can hear it too.   The construction was also an inconvenience because it caused me to make a detour to get on the interstate going southbound on 610.  The first night was fine but after that there were noisy rooms next door and across the hall.  They were completely disruptive.  Running down the halls.  The walls were paper thin.  I didn't have time nor the patience to call the front desk to complain.  I didn't want to make a fuss and have to move to another room.  I probably will not stay in this hotel again.  I will stay closer to downtown, galleria area and the pay the extra money for a nicer hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r144973248-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144973248</t>
+  </si>
+  <si>
+    <t>11/08/2012</t>
+  </si>
+  <si>
+    <t>I Had to Go on the First Night</t>
+  </si>
+  <si>
+    <t>This was my first time to this hotel and the last. It sure looked nice when I walked in but the rooms! Not good for this type of hotel. I expect a lot more from Marriott and the Courtyard brands. It is very dated and the beds are very hard and old. I could not stay in the room for my 17 night stay so I called down to inform them of the condition of the room and was treated like it was no surprise. So I requested to check out without being charged; at least this was granted. I found a hotel with better conditions just up the road at the Towneplace Suites by Marriott. It is newly renovated lobby, rooms and all!MoreShow less</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded November 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2012</t>
+  </si>
+  <si>
+    <t>This was my first time to this hotel and the last. It sure looked nice when I walked in but the rooms! Not good for this type of hotel. I expect a lot more from Marriott and the Courtyard brands. It is very dated and the beds are very hard and old. I could not stay in the room for my 17 night stay so I called down to inform them of the condition of the room and was treated like it was no surprise. So I requested to check out without being charged; at least this was granted. I found a hotel with better conditions just up the road at the Towneplace Suites by Marriott. It is newly renovated lobby, rooms and all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r140059880-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140059880</t>
+  </si>
+  <si>
+    <t>09/12/2012</t>
+  </si>
+  <si>
+    <t>Good. No surprises.</t>
+  </si>
+  <si>
+    <t>In every way, this is a typical Courtyard by Marriott.  Good staff. Recently redone with the Courtyard decor and lobby arrangement.  Beware of the freeway construction it can make for a challenging drive to some parts of the west loop area.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r139530909-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139530909</t>
+  </si>
+  <si>
+    <t>09/05/2012</t>
+  </si>
+  <si>
+    <t>Bad management/service</t>
+  </si>
+  <si>
+    <t>The hotel is mediocre and in the middle of a ton of construction do navigation in the area is a little difficult. Check in was quick and easy and I was allowed to change my reservation to stay only one night, instead of the two planned. Room was fine, typical hotel room with nothing out of the ordinary. Check out was easy and bill was correct. 
+The problem came after check out... I fell asleep reading my kindle and when I woke up I threw the covers over it and forgot it. I realized my mistake later that night after arriving home. I immediately called the hotel and had to leave a message for housekeeping. No response the next morning so I called back and was again transferred to housekeeping. No answer so I left another voicemail. No return within an hour so I called and relayed my frustration to the front desk who then had to page housekeeping to answer my call. No luck after numerous conversations with the housekeeping department who claims they didn't have it so then I get referred to management. No luck there either and neither the manager or assistant seemed concerned. I am still awaiting a return call from Trevor from over a week ago. I travel at least twice a month for work and will never stay at this hotel. If they have issues returning phone calls and with staff honesty, I want...The hotel is mediocre and in the middle of a ton of construction do navigation in the area is a little difficult. Check in was quick and easy and I was allowed to change my reservation to stay only one night, instead of the two planned. Room was fine, typical hotel room with nothing out of the ordinary. Check out was easy and bill was correct. The problem came after check out... I fell asleep reading my kindle and when I woke up I threw the covers over it and forgot it. I realized my mistake later that night after arriving home. I immediately called the hotel and had to leave a message for housekeeping. No response the next morning so I called back and was again transferred to housekeeping. No answer so I left another voicemail. No return within an hour so I called and relayed my frustration to the front desk who then had to page housekeeping to answer my call. No luck after numerous conversations with the housekeeping department who claims they didn't have it so then I get referred to management. No luck there either and neither the manager or assistant seemed concerned. I am still awaiting a return call from Trevor from over a week ago. I travel at least twice a month for work and will never stay at this hotel. If they have issues returning phone calls and with staff honesty, I want no part of this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is mediocre and in the middle of a ton of construction do navigation in the area is a little difficult. Check in was quick and easy and I was allowed to change my reservation to stay only one night, instead of the two planned. Room was fine, typical hotel room with nothing out of the ordinary. Check out was easy and bill was correct. 
+The problem came after check out... I fell asleep reading my kindle and when I woke up I threw the covers over it and forgot it. I realized my mistake later that night after arriving home. I immediately called the hotel and had to leave a message for housekeeping. No response the next morning so I called back and was again transferred to housekeeping. No answer so I left another voicemail. No return within an hour so I called and relayed my frustration to the front desk who then had to page housekeeping to answer my call. No luck after numerous conversations with the housekeeping department who claims they didn't have it so then I get referred to management. No luck there either and neither the manager or assistant seemed concerned. I am still awaiting a return call from Trevor from over a week ago. I travel at least twice a month for work and will never stay at this hotel. If they have issues returning phone calls and with staff honesty, I want...The hotel is mediocre and in the middle of a ton of construction do navigation in the area is a little difficult. Check in was quick and easy and I was allowed to change my reservation to stay only one night, instead of the two planned. Room was fine, typical hotel room with nothing out of the ordinary. Check out was easy and bill was correct. The problem came after check out... I fell asleep reading my kindle and when I woke up I threw the covers over it and forgot it. I realized my mistake later that night after arriving home. I immediately called the hotel and had to leave a message for housekeeping. No response the next morning so I called back and was again transferred to housekeeping. No answer so I left another voicemail. No return within an hour so I called and relayed my frustration to the front desk who then had to page housekeeping to answer my call. No luck after numerous conversations with the housekeeping department who claims they didn't have it so then I get referred to management. No luck there either and neither the manager or assistant seemed concerned. I am still awaiting a return call from Trevor from over a week ago. I travel at least twice a month for work and will never stay at this hotel. If they have issues returning phone calls and with staff honesty, I want no part of this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r138803617-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138803617</t>
+  </si>
+  <si>
+    <t>08/29/2012</t>
+  </si>
+  <si>
+    <t>Good location in Houston</t>
+  </si>
+  <si>
+    <t>This is a nice older hotel. the side of the hotel by the busy street is noisy in the evening and early morning. I was disappointed to not have a refrigerator in the room, usually I have had them n newer Marriott's. Overall it was pretty good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r134282678-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134282678</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>This was a horrible experience at this hotel. I checked out and was refunded my money from priceline. The lobby and bistro area looks great. Once I checked into my room, it was "just okay". I came in late and went to bed. Next door there was alot of noise, a little kid playing and bumping at 2am. I went to the front desk, they moved my room. When I got to the room, I just happened to pull back covers. There was a spider in the bed and a flying roach on the wall. The manager came back and moved me again (mind you at 230am by this time). The next room had bugs in the bathroom, but I went to sleep knowing I would check out the next morning. I didnt care if I lost my money at all. The last room was very dingy and old. Old beds, and when someone next door flushed their toilet, you heard it and felt it. The shower wouldnt drain and the light wouldnt come on in the bathroom. I would not recommend this hotel. Spend a few more dollars and stay in the galleria area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>This was a horrible experience at this hotel. I checked out and was refunded my money from priceline. The lobby and bistro area looks great. Once I checked into my room, it was "just okay". I came in late and went to bed. Next door there was alot of noise, a little kid playing and bumping at 2am. I went to the front desk, they moved my room. When I got to the room, I just happened to pull back covers. There was a spider in the bed and a flying roach on the wall. The manager came back and moved me again (mind you at 230am by this time). The next room had bugs in the bathroom, but I went to sleep knowing I would check out the next morning. I didnt care if I lost my money at all. The last room was very dingy and old. Old beds, and when someone next door flushed their toilet, you heard it and felt it. The shower wouldnt drain and the light wouldnt come on in the bathroom. I would not recommend this hotel. Spend a few more dollars and stay in the galleria area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r129365065-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129365065</t>
+  </si>
+  <si>
+    <t>05/04/2012</t>
+  </si>
+  <si>
+    <t>Nice staff but hotel dated and has bugs</t>
+  </si>
+  <si>
+    <t>I stayed at the Courtyard during a business trip. The staff were very friendly but the rooms were dated with a musty/mildew smell. I found a couple of bugs in the room.Getting to the hotel is difficult because of road construction but the hotel did a good job with sending emails about this with new directions.This hotel isn't in the greatest area so beware.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r128197670-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128197670</t>
+  </si>
+  <si>
+    <t>04/19/2012</t>
+  </si>
+  <si>
+    <t>Keep driving to the Galleria area for better options....</t>
+  </si>
+  <si>
+    <t>For business travelers- it's all about location. Houston Brookhollow Courtyard- you have a problem. Despite the email warning from the hotel,  this location is a nightmare to get to and once you are in this scary neighborhood- your choices for non-hotel dining are mighty slim.  The rooms are worn and need a deep cleaning to lose the ready to mildew feeling in the rooms. A noisy a/c was a problem throughout the night.  Traffic in this part of town is a mess- keep driving towards the Galleria/Post Oak area for better room options.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r122264693-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>122264693</t>
+  </si>
+  <si>
+    <t>12/29/2011</t>
+  </si>
+  <si>
+    <t>Only if you want to be inconvenienced!</t>
+  </si>
+  <si>
+    <t>My bf and I stayed over the holidays while visiting family in the area--the house was full up.  It started with the discovery that the road in front of the hotel was a construction zone.  Then, once we checked in, I thought I would hook up to the hotel internet to take care of some last minute Christmas stuff.  
+Within minutes after accessing the internet, my laptop was hit by a malware, which consisted of a popup from Security Shield, indicating that my hard drive is under assault by 300+ viruses and that I needed to purchase the Security Shield software.  Despite my panic, I had the presence of mind to try a system scan with my own anti-virus software.  No dice.  So I called my tech savvy brother, who advised me to shut down my computer, especially as every keystroke prompted the warning and the request for a credit card number.  Luckily, my brother found a malware that removed the malware, and I reinstalled my anti-virus software tyour he next day.
+As if the malware wasn't bad enough, when I called to complain about the infection of my computer, the front desk said this was the first time they had heard of this issue and that the earliest resolution will be on Mon., when the IT people will arrive.  They did indicate that their network was unsecured, and I told them that even the Best Western where I had...My bf and I stayed over the holidays while visiting family in the area--the house was full up.  It started with the discovery that the road in front of the hotel was a construction zone.  Then, once we checked in, I thought I would hook up to the hotel internet to take care of some last minute Christmas stuff.  Within minutes after accessing the internet, my laptop was hit by a malware, which consisted of a popup from Security Shield, indicating that my hard drive is under assault by 300+ viruses and that I needed to purchase the Security Shield software.  Despite my panic, I had the presence of mind to try a system scan with my own anti-virus software.  No dice.  So I called my tech savvy brother, who advised me to shut down my computer, especially as every keystroke prompted the warning and the request for a credit card number.  Luckily, my brother found a malware that removed the malware, and I reinstalled my anti-virus software tyour he next day.As if the malware wasn't bad enough, when I called to complain about the infection of my computer, the front desk said this was the first time they had heard of this issue and that the earliest resolution will be on Mon., when the IT people will arrive.  They did indicate that their network was unsecured, and I told them that even the Best Western where I had stayed two weeks before for a business trip had secure internet access.Other indicators of "bad service" include printers that would not work at the complimentary internet station downstairs, the bad TV reception in the room, the toilets that leaked toilet tank water, and the breakfast service that ended an hour earlier than usual because it was "the holidays."All these "inconveniences" DO detract from the acceptable bed and the friendly (if unhelpful) reception.  I would not recommend this hotel, unless you're hard up for a room.  (That said, there is a Sheraton close by--highly recommended by a Budget rental representative, and the breakfast buffet ($15/person) offered both good food and good service.)MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>My bf and I stayed over the holidays while visiting family in the area--the house was full up.  It started with the discovery that the road in front of the hotel was a construction zone.  Then, once we checked in, I thought I would hook up to the hotel internet to take care of some last minute Christmas stuff.  
+Within minutes after accessing the internet, my laptop was hit by a malware, which consisted of a popup from Security Shield, indicating that my hard drive is under assault by 300+ viruses and that I needed to purchase the Security Shield software.  Despite my panic, I had the presence of mind to try a system scan with my own anti-virus software.  No dice.  So I called my tech savvy brother, who advised me to shut down my computer, especially as every keystroke prompted the warning and the request for a credit card number.  Luckily, my brother found a malware that removed the malware, and I reinstalled my anti-virus software tyour he next day.
+As if the malware wasn't bad enough, when I called to complain about the infection of my computer, the front desk said this was the first time they had heard of this issue and that the earliest resolution will be on Mon., when the IT people will arrive.  They did indicate that their network was unsecured, and I told them that even the Best Western where I had...My bf and I stayed over the holidays while visiting family in the area--the house was full up.  It started with the discovery that the road in front of the hotel was a construction zone.  Then, once we checked in, I thought I would hook up to the hotel internet to take care of some last minute Christmas stuff.  Within minutes after accessing the internet, my laptop was hit by a malware, which consisted of a popup from Security Shield, indicating that my hard drive is under assault by 300+ viruses and that I needed to purchase the Security Shield software.  Despite my panic, I had the presence of mind to try a system scan with my own anti-virus software.  No dice.  So I called my tech savvy brother, who advised me to shut down my computer, especially as every keystroke prompted the warning and the request for a credit card number.  Luckily, my brother found a malware that removed the malware, and I reinstalled my anti-virus software tyour he next day.As if the malware wasn't bad enough, when I called to complain about the infection of my computer, the front desk said this was the first time they had heard of this issue and that the earliest resolution will be on Mon., when the IT people will arrive.  They did indicate that their network was unsecured, and I told them that even the Best Western where I had stayed two weeks before for a business trip had secure internet access.Other indicators of "bad service" include printers that would not work at the complimentary internet station downstairs, the bad TV reception in the room, the toilets that leaked toilet tank water, and the breakfast service that ended an hour earlier than usual because it was "the holidays."All these "inconveniences" DO detract from the acceptable bed and the friendly (if unhelpful) reception.  I would not recommend this hotel, unless you're hard up for a room.  (That said, there is a Sheraton close by--highly recommended by a Budget rental representative, and the breakfast buffet ($15/person) offered both good food and good service.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r120799604-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120799604</t>
+  </si>
+  <si>
+    <t>11/19/2011</t>
+  </si>
+  <si>
+    <t>Decent stay, but watch yor car!</t>
+  </si>
+  <si>
+    <t>Brief Intro:
+Upon arriving at the hotel you will be greeted with an older looking hotel from the outside. When entering the facility immediately inside the doors is the front desk, literally 10 feet from the door. This can become an issue when a lot of travelers are checking into the hotel at the same time and causes a huge back up out the door to the outside as there isn't much room to "wrap around" the check-in area. 
+Hotel Location:
+The hotel itself is situated in a "questionable" part of Houston, its not quite on the outskirts but its also not in city limits. The other problem is the lack of food/restaurants established. There are two smaller restaurants in walking distance, a Mexican restaurant called Juanita and a sandwich shop called Antone's. I had the luxury of eating at both locations and I must say that Antone's was the best and was actually a halfway decent sandwich shop that wasn't over priced. The Mexican restaurant itself wasn't as good and the service wasn't great. For example, I ordered a Margarita, regular, on the rocks and it took me to ask the waiter twice where my drink was. 
+Hotel Facility:
+It is fairly obvious that the hotel facility itself is on the older side of hotels but not horribly out of date. It seems like the entrance, lobby, main food and meeting areas were recently refreshed and are very nice...Brief Intro:Upon arriving at the hotel you will be greeted with an older looking hotel from the outside. When entering the facility immediately inside the doors is the front desk, literally 10 feet from the door. This can become an issue when a lot of travelers are checking into the hotel at the same time and causes a huge back up out the door to the outside as there isn't much room to "wrap around" the check-in area. Hotel Location:The hotel itself is situated in a "questionable" part of Houston, its not quite on the outskirts but its also not in city limits. The other problem is the lack of food/restaurants established. There are two smaller restaurants in walking distance, a Mexican restaurant called Juanita and a sandwich shop called Antone's. I had the luxury of eating at both locations and I must say that Antone's was the best and was actually a halfway decent sandwich shop that wasn't over priced. The Mexican restaurant itself wasn't as good and the service wasn't great. For example, I ordered a Margarita, regular, on the rocks and it took me to ask the waiter twice where my drink was. Hotel Facility:It is fairly obvious that the hotel facility itself is on the older side of hotels but not horribly out of date. It seems like the entrance, lobby, main food and meeting areas were recently refreshed and are very nice contemporary style atmosphere about it. However, once you leave these areas you will quickly find out that this refresh stopped there! The carpeting throughout the hotel needs to be replaced including the rooms. The bathrooms also could use a refreshment but aren't absolutely horrible. The hotel does have a pool that was operational when I was there and was very clean. The hotel was clean and organized and my room was always cleaned and made up well when returning from a long day. There was also a small work out gym with a few gym items including a treadmill and bike. Hotel Bar/Food/Breakfast/:The hotel did have a fairly decent breakfast selection and eating area which was staffed by a very nice staff and provided requested items very quickly and efficiently. There is free coffee (barista bold, no free Starbucks, sorry) which is "drinkable" coffee but the bar area provides a semi full Starbucks coffee menu along with the steep prices that come with it. I ordered a mocha latte one day and it was very well made and met my standards. I also ate breakfast here every morning and I must say, for hotel food, it made my top ten! I think mostly this was due to the very friendly and caring staff that were always friendly no matter how early it was or how tired I looked!Final Words: Watch the Area...and your car!!Upon leaving the hotel on the last morning that I was there I walked out of the side door of the facility to go to my rental car. To my surprise, right outside the door to the right I notice a car on cinder blocks!! No joke! So I am thinking, ok from my angle maybe they had two flat tires? No way! I walked around the car and I see all four tires are on cinder blocks!! Amazing. This occurred during a full hotel occupancy, right outside multiple rooms of the first and second floors AND right outside an exit door. I felt bad for whoever the car belonged too, let alone this happening in a HOTEL PARKING LOT! I strongly recommend parking your car on the other side of the hotel near the road where it can be seen by passing traffic at least. Other then some improvements that can definitely be made the hotel is "acceptable" however, if you have the ability to stay at a hotel closer to the city I would recommend that option. I rate this hotel a 5.5/10 on my hotel review scale, and please, if you do stay at this location in the future, please make sure you don't leave ANY valuables in your car.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Brief Intro:
+Upon arriving at the hotel you will be greeted with an older looking hotel from the outside. When entering the facility immediately inside the doors is the front desk, literally 10 feet from the door. This can become an issue when a lot of travelers are checking into the hotel at the same time and causes a huge back up out the door to the outside as there isn't much room to "wrap around" the check-in area. 
+Hotel Location:
+The hotel itself is situated in a "questionable" part of Houston, its not quite on the outskirts but its also not in city limits. The other problem is the lack of food/restaurants established. There are two smaller restaurants in walking distance, a Mexican restaurant called Juanita and a sandwich shop called Antone's. I had the luxury of eating at both locations and I must say that Antone's was the best and was actually a halfway decent sandwich shop that wasn't over priced. The Mexican restaurant itself wasn't as good and the service wasn't great. For example, I ordered a Margarita, regular, on the rocks and it took me to ask the waiter twice where my drink was. 
+Hotel Facility:
+It is fairly obvious that the hotel facility itself is on the older side of hotels but not horribly out of date. It seems like the entrance, lobby, main food and meeting areas were recently refreshed and are very nice...Brief Intro:Upon arriving at the hotel you will be greeted with an older looking hotel from the outside. When entering the facility immediately inside the doors is the front desk, literally 10 feet from the door. This can become an issue when a lot of travelers are checking into the hotel at the same time and causes a huge back up out the door to the outside as there isn't much room to "wrap around" the check-in area. Hotel Location:The hotel itself is situated in a "questionable" part of Houston, its not quite on the outskirts but its also not in city limits. The other problem is the lack of food/restaurants established. There are two smaller restaurants in walking distance, a Mexican restaurant called Juanita and a sandwich shop called Antone's. I had the luxury of eating at both locations and I must say that Antone's was the best and was actually a halfway decent sandwich shop that wasn't over priced. The Mexican restaurant itself wasn't as good and the service wasn't great. For example, I ordered a Margarita, regular, on the rocks and it took me to ask the waiter twice where my drink was. Hotel Facility:It is fairly obvious that the hotel facility itself is on the older side of hotels but not horribly out of date. It seems like the entrance, lobby, main food and meeting areas were recently refreshed and are very nice contemporary style atmosphere about it. However, once you leave these areas you will quickly find out that this refresh stopped there! The carpeting throughout the hotel needs to be replaced including the rooms. The bathrooms also could use a refreshment but aren't absolutely horrible. The hotel does have a pool that was operational when I was there and was very clean. The hotel was clean and organized and my room was always cleaned and made up well when returning from a long day. There was also a small work out gym with a few gym items including a treadmill and bike. Hotel Bar/Food/Breakfast/:The hotel did have a fairly decent breakfast selection and eating area which was staffed by a very nice staff and provided requested items very quickly and efficiently. There is free coffee (barista bold, no free Starbucks, sorry) which is "drinkable" coffee but the bar area provides a semi full Starbucks coffee menu along with the steep prices that come with it. I ordered a mocha latte one day and it was very well made and met my standards. I also ate breakfast here every morning and I must say, for hotel food, it made my top ten! I think mostly this was due to the very friendly and caring staff that were always friendly no matter how early it was or how tired I looked!Final Words: Watch the Area...and your car!!Upon leaving the hotel on the last morning that I was there I walked out of the side door of the facility to go to my rental car. To my surprise, right outside the door to the right I notice a car on cinder blocks!! No joke! So I am thinking, ok from my angle maybe they had two flat tires? No way! I walked around the car and I see all four tires are on cinder blocks!! Amazing. This occurred during a full hotel occupancy, right outside multiple rooms of the first and second floors AND right outside an exit door. I felt bad for whoever the car belonged too, let alone this happening in a HOTEL PARKING LOT! I strongly recommend parking your car on the other side of the hotel near the road where it can be seen by passing traffic at least. Other then some improvements that can definitely be made the hotel is "acceptable" however, if you have the ability to stay at a hotel closer to the city I would recommend that option. I rate this hotel a 5.5/10 on my hotel review scale, and please, if you do stay at this location in the future, please make sure you don't leave ANY valuables in your car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r120709866-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120709866</t>
+  </si>
+  <si>
+    <t>11/17/2011</t>
+  </si>
+  <si>
+    <t>A comfortable bed, but nothing fancy</t>
+  </si>
+  <si>
+    <t>When we first pulled up at the Brookhollow Courtyard by Marriott, my first impression was that it was old and needed a facelift.  But thank goodness when we got inside it was much cleaner and nicer.  The front desk staff was very nice and they assisted our group with checking in quickly and efficiently.  My room was adequate, but somewhat out of date.  At least it was clean.  The bathroom was extremely small.  If you opened and closed the door, it actually brushed the end of the toilet.  And when you flushed the toilet, pieces of toilet paper came back up, so that was kinda gross.  Lots of hallway noise...you could see light around the door and under it, so it's not surprising that I could hear everything going on outside my room.  Luckily that didn't last very late into the evening.  The bed was either really comfortable or I was just really tired.  I slept like a rock and my back didn't hurt the next morning.  The water pressure in the shower was perfect...that's always a big deal to me.  Breakfast in their new bistro area was pretty good, but a little pricy for what it was.  Service was slow, but the food was cooked fresh and was hot.  This was a decent hotel, but wouldn't be a top choice for my next stay in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>When we first pulled up at the Brookhollow Courtyard by Marriott, my first impression was that it was old and needed a facelift.  But thank goodness when we got inside it was much cleaner and nicer.  The front desk staff was very nice and they assisted our group with checking in quickly and efficiently.  My room was adequate, but somewhat out of date.  At least it was clean.  The bathroom was extremely small.  If you opened and closed the door, it actually brushed the end of the toilet.  And when you flushed the toilet, pieces of toilet paper came back up, so that was kinda gross.  Lots of hallway noise...you could see light around the door and under it, so it's not surprising that I could hear everything going on outside my room.  Luckily that didn't last very late into the evening.  The bed was either really comfortable or I was just really tired.  I slept like a rock and my back didn't hurt the next morning.  The water pressure in the shower was perfect...that's always a big deal to me.  Breakfast in their new bistro area was pretty good, but a little pricy for what it was.  Service was slow, but the food was cooked fresh and was hot.  This was a decent hotel, but wouldn't be a top choice for my next stay in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r114960493-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114960493</t>
+  </si>
+  <si>
+    <t>07/02/2011</t>
+  </si>
+  <si>
+    <t>No More Free Breakfast????</t>
+  </si>
+  <si>
+    <t>I will start with the positive, Fitz at the front desk was amazing during my check-in. He was friendly, helpful and spoke to me as if we had known each other forever, which built trust and comfort in me having a great stay. I couldn't say enough good things about him. Glenisha was very helpful as well at check out, she was all smiles and she seemed as though she really liked being at work and was genuinely interested in the quality of the service she was providing. 
+Now with that being said, I woke up early to come down for the free breakfast they have advertised as an amentity on Marriott's website to find that there is no complimentary continental breakfast, but instead an overpriced cafe of sorts. I chose staying at this property over the Marriott Westloop soley because they advertised free breakfast, and I love a quality continental breakfast. It completely threw off my budget and potentially ruined my morning. I could not review the food they are selling there, because I did not eat based on principal. I felt a bit cheated. The young lady at the cafe counter told me they stopped serving continental breakfast a year ago. I do not see why it was not removed from thier website after all this time. 
+The room was immaculate and truly one of the nicest rooms I have stayed in for the price and could even...I will start with the positive, Fitz at the front desk was amazing during my check-in. He was friendly, helpful and spoke to me as if we had known each other forever, which built trust and comfort in me having a great stay. I couldn't say enough good things about him. Glenisha was very helpful as well at check out, she was all smiles and she seemed as though she really liked being at work and was genuinely interested in the quality of the service she was providing. Now with that being said, I woke up early to come down for the free breakfast they have advertised as an amentity on Marriott's website to find that there is no complimentary continental breakfast, but instead an overpriced cafe of sorts. I chose staying at this property over the Marriott Westloop soley because they advertised free breakfast, and I love a quality continental breakfast. It completely threw off my budget and potentially ruined my morning. I could not review the food they are selling there, because I did not eat based on principal. I felt a bit cheated. The young lady at the cafe counter told me they stopped serving continental breakfast a year ago. I do not see why it was not removed from thier website after all this time. The room was immaculate and truly one of the nicest rooms I have stayed in for the price and could even give some high-end hotel chains a run for their money. The television was up to date and the internet was thankfully wifi and complimentary as well. I will not stay here again, but it was not because of the service, which was outstanding in everyway. If you promise me complimentary breakfast on your website and I wake up at the crack of dawn on a Saturday for Texas shaped waffles, they should be there. So I am left with a bad taste in my mouth, tastes alot like toothpaste and disappointment, certainly not breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded August 11, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2011</t>
+  </si>
+  <si>
+    <t>I will start with the positive, Fitz at the front desk was amazing during my check-in. He was friendly, helpful and spoke to me as if we had known each other forever, which built trust and comfort in me having a great stay. I couldn't say enough good things about him. Glenisha was very helpful as well at check out, she was all smiles and she seemed as though she really liked being at work and was genuinely interested in the quality of the service she was providing. 
+Now with that being said, I woke up early to come down for the free breakfast they have advertised as an amentity on Marriott's website to find that there is no complimentary continental breakfast, but instead an overpriced cafe of sorts. I chose staying at this property over the Marriott Westloop soley because they advertised free breakfast, and I love a quality continental breakfast. It completely threw off my budget and potentially ruined my morning. I could not review the food they are selling there, because I did not eat based on principal. I felt a bit cheated. The young lady at the cafe counter told me they stopped serving continental breakfast a year ago. I do not see why it was not removed from thier website after all this time. 
+The room was immaculate and truly one of the nicest rooms I have stayed in for the price and could even...I will start with the positive, Fitz at the front desk was amazing during my check-in. He was friendly, helpful and spoke to me as if we had known each other forever, which built trust and comfort in me having a great stay. I couldn't say enough good things about him. Glenisha was very helpful as well at check out, she was all smiles and she seemed as though she really liked being at work and was genuinely interested in the quality of the service she was providing. Now with that being said, I woke up early to come down for the free breakfast they have advertised as an amentity on Marriott's website to find that there is no complimentary continental breakfast, but instead an overpriced cafe of sorts. I chose staying at this property over the Marriott Westloop soley because they advertised free breakfast, and I love a quality continental breakfast. It completely threw off my budget and potentially ruined my morning. I could not review the food they are selling there, because I did not eat based on principal. I felt a bit cheated. The young lady at the cafe counter told me they stopped serving continental breakfast a year ago. I do not see why it was not removed from thier website after all this time. The room was immaculate and truly one of the nicest rooms I have stayed in for the price and could even give some high-end hotel chains a run for their money. The television was up to date and the internet was thankfully wifi and complimentary as well. I will not stay here again, but it was not because of the service, which was outstanding in everyway. If you promise me complimentary breakfast on your website and I wake up at the crack of dawn on a Saturday for Texas shaped waffles, they should be there. So I am left with a bad taste in my mouth, tastes alot like toothpaste and disappointment, certainly not breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r91739920-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>91739920</t>
+  </si>
+  <si>
+    <t>01/04/2011</t>
+  </si>
+  <si>
+    <t>This Lone Star Hotel Is A 5-Star Gem!</t>
+  </si>
+  <si>
+    <t>Don't let the outside appearence fool you. Marriott has obvioulsy invested a lot to update and beautify this hotel's rooms and interior.Everything from the bright, vibrant colors to the cafe to the cozy rooms screams "upscale" -- without having to pay the luxury price.Would be nice if they added a bar to the property (word of warning: there is a strip club next door, but that was never an issue), but I have few complaints after staying here for four days (spanning late December into early January).I doubt any reasonable person would have any problems with this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded January 10, 2011</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2011</t>
+  </si>
+  <si>
+    <t>Don't let the outside appearence fool you. Marriott has obvioulsy invested a lot to update and beautify this hotel's rooms and interior.Everything from the bright, vibrant colors to the cafe to the cozy rooms screams "upscale" -- without having to pay the luxury price.Would be nice if they added a bar to the property (word of warning: there is a strip club next door, but that was never an issue), but I have few complaints after staying here for four days (spanning late December into early January).I doubt any reasonable person would have any problems with this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r89469342-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>89469342</t>
+  </si>
+  <si>
+    <t>12/09/2010</t>
+  </si>
+  <si>
+    <t>My vehicle was vandalized while parked out front</t>
+  </si>
+  <si>
+    <t>OK hotel, except pathetic security.  My less than month old new $40,000 vehicle was vandalized during my stay.  It was parked in front of the hotel between the hotel and the freeway access road.  Where was their security?MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>CYBrookhollowGM, General Manager at Courtyard by Marriott Houston Brookhollow, responded to this reviewResponded January 11, 2011</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2011</t>
+  </si>
+  <si>
+    <t>OK hotel, except pathetic security.  My less than month old new $40,000 vehicle was vandalized during my stay.  It was parked in front of the hotel between the hotel and the freeway access road.  Where was their security?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r77014567-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>77014567</t>
+  </si>
+  <si>
+    <t>08/26/2010</t>
+  </si>
+  <si>
+    <t>Good Sleep</t>
+  </si>
+  <si>
+    <t>In Houston to visit family, arrived late in evening, hotel staff very friendly, 3rd floor room could not have been quiter, clean sheets, bathroom clean.   I felt very safe but then I grew up in the neighborhood and know my way around. Train tracks are not sitting by the hotel, yes there is 610 loop but hotel is set off the service road so not directly on the freeway. This neighborhood is going thru some revitalization changes, small homes on large lots are being torn down to built mega homes with no yards. For restaurants either the Galleria area (south) or Highway 290 (north) for restaurant row.  I will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>In Houston to visit family, arrived late in evening, hotel staff very friendly, 3rd floor room could not have been quiter, clean sheets, bathroom clean.   I felt very safe but then I grew up in the neighborhood and know my way around. Train tracks are not sitting by the hotel, yes there is 610 loop but hotel is set off the service road so not directly on the freeway. This neighborhood is going thru some revitalization changes, small homes on large lots are being torn down to built mega homes with no yards. For restaurants either the Galleria area (south) or Highway 290 (north) for restaurant row.  I will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r63164852-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>63164852</t>
+  </si>
+  <si>
+    <t>05/03/2010</t>
+  </si>
+  <si>
+    <t>Take a Pass...</t>
+  </si>
+  <si>
+    <t>I agree with other reviews- not the best location, is an older property, rooms are small for a standard CY.  It had a strange vibe to it, a bit uncomfortable.  I caught it on a convention week and had to pay $189 which was a total rip, but alas, supply and demand.  Might be better off being a Red Roof Inn...MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>I agree with other reviews- not the best location, is an older property, rooms are small for a standard CY.  It had a strange vibe to it, a bit uncomfortable.  I caught it on a convention week and had to pay $189 which was a total rip, but alas, supply and demand.  Might be better off being a Red Roof Inn...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r59191567-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>59191567</t>
+  </si>
+  <si>
+    <t>03/21/2010</t>
+  </si>
+  <si>
+    <t>Clean room, comfy beds</t>
+  </si>
+  <si>
+    <t>This is an older property, but it has been well maintained and doesn't show its age poorly.  It is in a central location in Houston, close to the Heights neighborhood, which offers great dining.  You easily get to different parts of the city from here.The hotel is close to the freeway, so you do have a lot of freeway noise, but it wasn't anything obtrusive for us.  The bed was very comfy so we slept really well.The bathroom was tiny for two people, but the rest of the room was quite large.We got an excellent price for our stay here, and would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r13880479-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>13880479</t>
+  </si>
+  <si>
+    <t>02/27/2008</t>
+  </si>
+  <si>
+    <t>Very noisy</t>
+  </si>
+  <si>
+    <t>This hotel is located very close to a main road and also a railway line. During my 2 nights stay I was consistently woken up, and I am normally a very heavy sleeper. Air conditioing unit was also very noisy, and the room had a rather unpleasant smell. On the plus side the hotel has free wireless and the breakfast buffet was good and also very cheap.Maybe I was unluckly with the noise but I would not stay here again.</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r10782467-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>10782467</t>
+  </si>
+  <si>
+    <t>11/12/2007</t>
+  </si>
+  <si>
+    <t>Normal Courtyard</t>
+  </si>
+  <si>
+    <t>Arrived late. Staff was very friendly. Comfortable room. Breakfast service was so so.  Not in a tourist area. On the northwest side of town off the I-610.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r8263045-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8263045</t>
+  </si>
+  <si>
+    <t>07/29/2007</t>
+  </si>
+  <si>
+    <t>Wonderful experience</t>
+  </si>
+  <si>
+    <t>Stayed here for three days.  Friendly , courteous staff who truly understand the meaning of customer service.  When there was a small problem it was handled promptly, efficiently and breakfast offered gratis for the next day.  Breakfast buffet has extensive choices and food is delicious.  Hotel is conveniently located for easy access to the 610 freeway which is the road that rings Houston.  Found everything easily accessible from here.  Rooms are quiet, clean and very comfortable bed.  Would stay here again when in Houston.</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r5024670-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5024670</t>
+  </si>
+  <si>
+    <t>04/30/2006</t>
+  </si>
+  <si>
+    <t>Won't Return</t>
+  </si>
+  <si>
+    <t>I arrived rather late in the evening to this hotel (after 10:30 PM or so) and one could guess given the fact that I was at a hotel, that I was a very tired traveler.  I’m sure I looked tired.  So I was somewhat annoyed when the woman checking me in kept trying to get me to sign up for some reward program.  Why would you hassle someone about signing up for something when they are clearly just arriving into town, checking in, and probably just wanting to go to bed?  All I wanted was the key to my room.  The room appeared clean when I first arrived.  The bathroom looked clean.  However, when I pulled back the sheets on one bed, it appeared as though someone had been eating chips between the sheets.  There were crumbs in the bed.  So I made my way over to the next bed, and while the sheets appeared clean, the pillow case did not.  It had makeup smeared on it.  Next time I am in Houston, I’ll find someplace else to stay where I won’t be expected to climb into bed with old potato chips and rest my head on a pillow stained with makeup.  The best part about my stay here was the very good Mexican restaurant across the street - Juanita's.MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived rather late in the evening to this hotel (after 10:30 PM or so) and one could guess given the fact that I was at a hotel, that I was a very tired traveler.  I’m sure I looked tired.  So I was somewhat annoyed when the woman checking me in kept trying to get me to sign up for some reward program.  Why would you hassle someone about signing up for something when they are clearly just arriving into town, checking in, and probably just wanting to go to bed?  All I wanted was the key to my room.  The room appeared clean when I first arrived.  The bathroom looked clean.  However, when I pulled back the sheets on one bed, it appeared as though someone had been eating chips between the sheets.  There were crumbs in the bed.  So I made my way over to the next bed, and while the sheets appeared clean, the pillow case did not.  It had makeup smeared on it.  Next time I am in Houston, I’ll find someplace else to stay where I won’t be expected to climb into bed with old potato chips and rest my head on a pillow stained with makeup.  The best part about my stay here was the very good Mexican restaurant across the street - Juanita's.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98936-r4972736-Courtyard_by_Marriott_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4972736</t>
+  </si>
+  <si>
+    <t>04/13/2006</t>
+  </si>
+  <si>
+    <t>Loved this hotel</t>
+  </si>
+  <si>
+    <t>Definitely recommend this hotel. Very helpful and friendly staff. Always a smile to greet you. Clean rooms, excellent housekeeping service. Used the workout room, which was nice. Great location. No complaints.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2560,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2592,6212 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X15" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>158</v>
+      </c>
+      <c r="X17" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>100</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>158</v>
+      </c>
+      <c r="X18" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X22" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>191</v>
+      </c>
+      <c r="X23" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>191</v>
+      </c>
+      <c r="X24" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L25" t="s">
+        <v>210</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>211</v>
+      </c>
+      <c r="O25" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>191</v>
+      </c>
+      <c r="X25" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" t="s">
+        <v>217</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>218</v>
+      </c>
+      <c r="O26" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>191</v>
+      </c>
+      <c r="X26" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>177</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>191</v>
+      </c>
+      <c r="X27" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" t="s">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>231</v>
+      </c>
+      <c r="O28" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>191</v>
+      </c>
+      <c r="X28" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" t="s">
+        <v>236</v>
+      </c>
+      <c r="L29" t="s">
+        <v>237</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>231</v>
+      </c>
+      <c r="O29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>191</v>
+      </c>
+      <c r="X29" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>240</v>
+      </c>
+      <c r="J30" t="s">
+        <v>241</v>
+      </c>
+      <c r="K30" t="s">
+        <v>242</v>
+      </c>
+      <c r="L30" t="s">
+        <v>243</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>231</v>
+      </c>
+      <c r="O30" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>191</v>
+      </c>
+      <c r="X30" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" t="s">
+        <v>247</v>
+      </c>
+      <c r="K31" t="s">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>251</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>252</v>
+      </c>
+      <c r="J32" t="s">
+        <v>253</v>
+      </c>
+      <c r="K32" t="s">
+        <v>254</v>
+      </c>
+      <c r="L32" t="s">
+        <v>255</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>256</v>
+      </c>
+      <c r="O32" t="s">
+        <v>106</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>257</v>
+      </c>
+      <c r="X32" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>260</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>261</v>
+      </c>
+      <c r="J33" t="s">
+        <v>262</v>
+      </c>
+      <c r="K33" t="s">
+        <v>263</v>
+      </c>
+      <c r="L33" t="s">
+        <v>264</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>256</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>257</v>
+      </c>
+      <c r="X33" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>267</v>
+      </c>
+      <c r="J34" t="s">
+        <v>268</v>
+      </c>
+      <c r="K34" t="s">
+        <v>269</v>
+      </c>
+      <c r="L34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>256</v>
+      </c>
+      <c r="O34" t="s">
+        <v>106</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>257</v>
+      </c>
+      <c r="X34" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>273</v>
+      </c>
+      <c r="J35" t="s">
+        <v>274</v>
+      </c>
+      <c r="K35" t="s">
+        <v>275</v>
+      </c>
+      <c r="L35" t="s">
+        <v>276</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>277</v>
+      </c>
+      <c r="O35" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>278</v>
+      </c>
+      <c r="X35" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>282</v>
+      </c>
+      <c r="J36" t="s">
+        <v>283</v>
+      </c>
+      <c r="K36" t="s">
+        <v>284</v>
+      </c>
+      <c r="L36" t="s">
+        <v>285</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>286</v>
+      </c>
+      <c r="O36" t="s">
+        <v>106</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>278</v>
+      </c>
+      <c r="X36" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>288</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>289</v>
+      </c>
+      <c r="J37" t="s">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>286</v>
+      </c>
+      <c r="O37" t="s">
+        <v>106</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>278</v>
+      </c>
+      <c r="X37" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" t="s">
+        <v>297</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>298</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>278</v>
+      </c>
+      <c r="X38" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>301</v>
+      </c>
+      <c r="J39" t="s">
+        <v>302</v>
+      </c>
+      <c r="K39" t="s">
+        <v>303</v>
+      </c>
+      <c r="L39" t="s">
+        <v>304</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>298</v>
+      </c>
+      <c r="O39" t="s">
+        <v>100</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>278</v>
+      </c>
+      <c r="X39" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>306</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>307</v>
+      </c>
+      <c r="J40" t="s">
+        <v>308</v>
+      </c>
+      <c r="K40" t="s">
+        <v>309</v>
+      </c>
+      <c r="L40" t="s">
+        <v>310</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>311</v>
+      </c>
+      <c r="O40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>312</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>313</v>
+      </c>
+      <c r="J41" t="s">
+        <v>314</v>
+      </c>
+      <c r="K41" t="s">
+        <v>315</v>
+      </c>
+      <c r="L41" t="s">
+        <v>316</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>311</v>
+      </c>
+      <c r="O41" t="s">
+        <v>106</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>317</v>
+      </c>
+      <c r="X41" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>320</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>321</v>
+      </c>
+      <c r="J42" t="s">
+        <v>322</v>
+      </c>
+      <c r="K42" t="s">
+        <v>323</v>
+      </c>
+      <c r="L42" t="s">
+        <v>324</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>311</v>
+      </c>
+      <c r="O42" t="s">
+        <v>106</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>317</v>
+      </c>
+      <c r="X42" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>327</v>
+      </c>
+      <c r="J43" t="s">
+        <v>322</v>
+      </c>
+      <c r="K43" t="s">
+        <v>328</v>
+      </c>
+      <c r="L43" t="s">
+        <v>329</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>311</v>
+      </c>
+      <c r="O43" t="s">
+        <v>106</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>317</v>
+      </c>
+      <c r="X43" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>331</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>332</v>
+      </c>
+      <c r="J44" t="s">
+        <v>333</v>
+      </c>
+      <c r="K44" t="s">
+        <v>334</v>
+      </c>
+      <c r="L44" t="s">
+        <v>335</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>336</v>
+      </c>
+      <c r="O44" t="s">
+        <v>106</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>337</v>
+      </c>
+      <c r="X44" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>341</v>
+      </c>
+      <c r="J45" t="s">
+        <v>342</v>
+      </c>
+      <c r="K45" t="s">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s">
+        <v>344</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>336</v>
+      </c>
+      <c r="O45" t="s">
+        <v>106</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>337</v>
+      </c>
+      <c r="X45" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>347</v>
+      </c>
+      <c r="J46" t="s">
+        <v>348</v>
+      </c>
+      <c r="K46" t="s">
+        <v>349</v>
+      </c>
+      <c r="L46" t="s">
+        <v>350</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>336</v>
+      </c>
+      <c r="O46" t="s">
+        <v>100</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>337</v>
+      </c>
+      <c r="X46" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>352</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>353</v>
+      </c>
+      <c r="J47" t="s">
+        <v>354</v>
+      </c>
+      <c r="K47" t="s">
+        <v>355</v>
+      </c>
+      <c r="L47" t="s">
+        <v>356</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>357</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>359</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>360</v>
+      </c>
+      <c r="J48" t="s">
+        <v>361</v>
+      </c>
+      <c r="K48" t="s">
+        <v>362</v>
+      </c>
+      <c r="L48" t="s">
+        <v>363</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>364</v>
+      </c>
+      <c r="O48" t="s">
+        <v>100</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>365</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>366</v>
+      </c>
+      <c r="J49" t="s">
+        <v>367</v>
+      </c>
+      <c r="K49" t="s">
+        <v>368</v>
+      </c>
+      <c r="L49" t="s">
+        <v>369</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>357</v>
+      </c>
+      <c r="O49" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>371</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>372</v>
+      </c>
+      <c r="J50" t="s">
+        <v>373</v>
+      </c>
+      <c r="K50" t="s">
+        <v>374</v>
+      </c>
+      <c r="L50" t="s">
+        <v>375</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>376</v>
+      </c>
+      <c r="O50" t="s">
+        <v>100</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>377</v>
+      </c>
+      <c r="X50" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>380</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>381</v>
+      </c>
+      <c r="J51" t="s">
+        <v>382</v>
+      </c>
+      <c r="K51" t="s">
+        <v>383</v>
+      </c>
+      <c r="L51" t="s">
+        <v>384</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>385</v>
+      </c>
+      <c r="O51" t="s">
+        <v>106</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>386</v>
+      </c>
+      <c r="X51" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>389</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>390</v>
+      </c>
+      <c r="J52" t="s">
+        <v>391</v>
+      </c>
+      <c r="K52" t="s">
+        <v>392</v>
+      </c>
+      <c r="L52" t="s">
+        <v>393</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>394</v>
+      </c>
+      <c r="O52" t="s">
+        <v>100</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>386</v>
+      </c>
+      <c r="X52" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>396</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>397</v>
+      </c>
+      <c r="J53" t="s">
+        <v>398</v>
+      </c>
+      <c r="K53" t="s">
+        <v>399</v>
+      </c>
+      <c r="L53" t="s">
+        <v>400</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>401</v>
+      </c>
+      <c r="O53" t="s">
+        <v>100</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>402</v>
+      </c>
+      <c r="X53" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>405</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>406</v>
+      </c>
+      <c r="J54" t="s">
+        <v>407</v>
+      </c>
+      <c r="K54" t="s">
+        <v>408</v>
+      </c>
+      <c r="L54" t="s">
+        <v>409</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>410</v>
+      </c>
+      <c r="X54" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>413</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>414</v>
+      </c>
+      <c r="J55" t="s">
+        <v>415</v>
+      </c>
+      <c r="K55" t="s">
+        <v>416</v>
+      </c>
+      <c r="L55" t="s">
+        <v>417</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>418</v>
+      </c>
+      <c r="O55" t="s">
+        <v>106</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>410</v>
+      </c>
+      <c r="X55" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>420</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>421</v>
+      </c>
+      <c r="J56" t="s">
+        <v>422</v>
+      </c>
+      <c r="K56" t="s">
+        <v>423</v>
+      </c>
+      <c r="L56" t="s">
+        <v>424</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>425</v>
+      </c>
+      <c r="O56" t="s">
+        <v>106</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>426</v>
+      </c>
+      <c r="X56" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>429</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>430</v>
+      </c>
+      <c r="J57" t="s">
+        <v>431</v>
+      </c>
+      <c r="K57" t="s">
+        <v>432</v>
+      </c>
+      <c r="L57" t="s">
+        <v>433</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>434</v>
+      </c>
+      <c r="O57" t="s">
+        <v>106</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>435</v>
+      </c>
+      <c r="X57" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>438</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>439</v>
+      </c>
+      <c r="J58" t="s">
+        <v>440</v>
+      </c>
+      <c r="K58" t="s">
+        <v>441</v>
+      </c>
+      <c r="L58" t="s">
+        <v>442</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>443</v>
+      </c>
+      <c r="O58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>444</v>
+      </c>
+      <c r="X58" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>447</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>448</v>
+      </c>
+      <c r="J59" t="s">
+        <v>449</v>
+      </c>
+      <c r="K59" t="s">
+        <v>284</v>
+      </c>
+      <c r="L59" t="s">
+        <v>450</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>451</v>
+      </c>
+      <c r="O59" t="s">
+        <v>106</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>452</v>
+      </c>
+      <c r="X59" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>455</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>456</v>
+      </c>
+      <c r="J60" t="s">
+        <v>457</v>
+      </c>
+      <c r="K60" t="s">
+        <v>458</v>
+      </c>
+      <c r="L60" t="s">
+        <v>459</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>460</v>
+      </c>
+      <c r="O60" t="s">
+        <v>106</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>452</v>
+      </c>
+      <c r="X60" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>462</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>463</v>
+      </c>
+      <c r="J61" t="s">
+        <v>464</v>
+      </c>
+      <c r="K61" t="s">
+        <v>465</v>
+      </c>
+      <c r="L61" t="s">
+        <v>466</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>460</v>
+      </c>
+      <c r="O61" t="s">
+        <v>106</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>452</v>
+      </c>
+      <c r="X61" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>468</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>469</v>
+      </c>
+      <c r="J62" t="s">
+        <v>470</v>
+      </c>
+      <c r="K62" t="s">
+        <v>471</v>
+      </c>
+      <c r="L62" t="s">
+        <v>472</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>473</v>
+      </c>
+      <c r="O62" t="s">
+        <v>106</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>452</v>
+      </c>
+      <c r="X62" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>475</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>476</v>
+      </c>
+      <c r="J63" t="s">
+        <v>477</v>
+      </c>
+      <c r="K63" t="s">
+        <v>478</v>
+      </c>
+      <c r="L63" t="s">
+        <v>479</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>480</v>
+      </c>
+      <c r="O63" t="s">
+        <v>71</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>452</v>
+      </c>
+      <c r="X63" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>482</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>483</v>
+      </c>
+      <c r="J64" t="s">
+        <v>484</v>
+      </c>
+      <c r="K64" t="s">
+        <v>485</v>
+      </c>
+      <c r="L64" t="s">
+        <v>486</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>480</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>487</v>
+      </c>
+      <c r="X64" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>490</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>491</v>
+      </c>
+      <c r="J65" t="s">
+        <v>492</v>
+      </c>
+      <c r="K65" t="s">
+        <v>493</v>
+      </c>
+      <c r="L65" t="s">
+        <v>494</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>495</v>
+      </c>
+      <c r="O65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>487</v>
+      </c>
+      <c r="X65" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>497</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>498</v>
+      </c>
+      <c r="J66" t="s">
+        <v>499</v>
+      </c>
+      <c r="K66" t="s">
+        <v>500</v>
+      </c>
+      <c r="L66" t="s">
+        <v>501</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>495</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>502</v>
+      </c>
+      <c r="X66" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>505</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>506</v>
+      </c>
+      <c r="J67" t="s">
+        <v>507</v>
+      </c>
+      <c r="K67" t="s">
+        <v>508</v>
+      </c>
+      <c r="L67" t="s">
+        <v>509</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>502</v>
+      </c>
+      <c r="X67" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>511</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>512</v>
+      </c>
+      <c r="J68" t="s">
+        <v>513</v>
+      </c>
+      <c r="K68" t="s">
+        <v>514</v>
+      </c>
+      <c r="L68" t="s">
+        <v>515</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>516</v>
+      </c>
+      <c r="O68" t="s">
+        <v>106</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>502</v>
+      </c>
+      <c r="X68" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>518</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>519</v>
+      </c>
+      <c r="J69" t="s">
+        <v>520</v>
+      </c>
+      <c r="K69" t="s">
+        <v>521</v>
+      </c>
+      <c r="L69" t="s">
+        <v>522</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>516</v>
+      </c>
+      <c r="O69" t="s">
+        <v>100</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>502</v>
+      </c>
+      <c r="X69" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>524</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>525</v>
+      </c>
+      <c r="J70" t="s">
+        <v>526</v>
+      </c>
+      <c r="K70" t="s">
+        <v>527</v>
+      </c>
+      <c r="L70" t="s">
+        <v>528</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>529</v>
+      </c>
+      <c r="O70" t="s">
+        <v>100</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>530</v>
+      </c>
+      <c r="X70" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>533</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>534</v>
+      </c>
+      <c r="J71" t="s">
+        <v>535</v>
+      </c>
+      <c r="K71" t="s">
+        <v>527</v>
+      </c>
+      <c r="L71" t="s">
+        <v>536</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>538</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>539</v>
+      </c>
+      <c r="J72" t="s">
+        <v>540</v>
+      </c>
+      <c r="K72" t="s">
+        <v>541</v>
+      </c>
+      <c r="L72" t="s">
+        <v>542</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>543</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>544</v>
+      </c>
+      <c r="J73" t="s">
+        <v>540</v>
+      </c>
+      <c r="K73" t="s">
+        <v>545</v>
+      </c>
+      <c r="L73" t="s">
+        <v>546</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>547</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>548</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>549</v>
+      </c>
+      <c r="J74" t="s">
+        <v>550</v>
+      </c>
+      <c r="K74" t="s">
+        <v>551</v>
+      </c>
+      <c r="L74" t="s">
+        <v>552</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>553</v>
+      </c>
+      <c r="O74" t="s">
+        <v>106</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>554</v>
+      </c>
+      <c r="X74" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>557</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>558</v>
+      </c>
+      <c r="J75" t="s">
+        <v>559</v>
+      </c>
+      <c r="K75" t="s">
+        <v>560</v>
+      </c>
+      <c r="L75" t="s">
+        <v>561</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>562</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>554</v>
+      </c>
+      <c r="X75" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>564</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>565</v>
+      </c>
+      <c r="J76" t="s">
+        <v>566</v>
+      </c>
+      <c r="K76" t="s">
+        <v>567</v>
+      </c>
+      <c r="L76" t="s">
+        <v>568</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>562</v>
+      </c>
+      <c r="O76" t="s">
+        <v>106</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>569</v>
+      </c>
+      <c r="X76" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>572</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>573</v>
+      </c>
+      <c r="J77" t="s">
+        <v>574</v>
+      </c>
+      <c r="K77" t="s">
+        <v>575</v>
+      </c>
+      <c r="L77" t="s">
+        <v>576</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>577</v>
+      </c>
+      <c r="O77" t="s">
+        <v>106</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>578</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>579</v>
+      </c>
+      <c r="J78" t="s">
+        <v>580</v>
+      </c>
+      <c r="K78" t="s">
+        <v>581</v>
+      </c>
+      <c r="L78" t="s">
+        <v>582</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>584</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>585</v>
+      </c>
+      <c r="J79" t="s">
+        <v>586</v>
+      </c>
+      <c r="K79" t="s">
+        <v>587</v>
+      </c>
+      <c r="L79" t="s">
+        <v>588</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>589</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>590</v>
+      </c>
+      <c r="J80" t="s">
+        <v>591</v>
+      </c>
+      <c r="K80" t="s">
+        <v>592</v>
+      </c>
+      <c r="L80" t="s">
+        <v>593</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>594</v>
+      </c>
+      <c r="O80" t="s">
+        <v>100</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>596</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>597</v>
+      </c>
+      <c r="J81" t="s">
+        <v>598</v>
+      </c>
+      <c r="K81" t="s">
+        <v>599</v>
+      </c>
+      <c r="L81" t="s">
+        <v>600</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>601</v>
+      </c>
+      <c r="O81" t="s">
+        <v>106</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>602</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>603</v>
+      </c>
+      <c r="J82" t="s">
+        <v>604</v>
+      </c>
+      <c r="K82" t="s">
+        <v>605</v>
+      </c>
+      <c r="L82" t="s">
+        <v>606</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>607</v>
+      </c>
+      <c r="O82" t="s">
+        <v>106</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>608</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>609</v>
+      </c>
+      <c r="J83" t="s">
+        <v>610</v>
+      </c>
+      <c r="K83" t="s">
+        <v>611</v>
+      </c>
+      <c r="L83" t="s">
+        <v>612</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>613</v>
+      </c>
+      <c r="O83" t="s">
+        <v>100</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>615</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>616</v>
+      </c>
+      <c r="J84" t="s">
+        <v>617</v>
+      </c>
+      <c r="K84" t="s">
+        <v>618</v>
+      </c>
+      <c r="L84" t="s">
+        <v>619</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>620</v>
+      </c>
+      <c r="O84" t="s">
+        <v>106</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>622</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>623</v>
+      </c>
+      <c r="J85" t="s">
+        <v>624</v>
+      </c>
+      <c r="K85" t="s">
+        <v>625</v>
+      </c>
+      <c r="L85" t="s">
+        <v>626</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>620</v>
+      </c>
+      <c r="O85" t="s">
+        <v>106</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>628</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>629</v>
+      </c>
+      <c r="J86" t="s">
+        <v>630</v>
+      </c>
+      <c r="K86" t="s">
+        <v>631</v>
+      </c>
+      <c r="L86" t="s">
+        <v>632</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>633</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>634</v>
+      </c>
+      <c r="X86" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>637</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>638</v>
+      </c>
+      <c r="J87" t="s">
+        <v>639</v>
+      </c>
+      <c r="K87" t="s">
+        <v>640</v>
+      </c>
+      <c r="L87" t="s">
+        <v>641</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>642</v>
+      </c>
+      <c r="O87" t="s">
+        <v>71</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>643</v>
+      </c>
+      <c r="X87" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>646</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>647</v>
+      </c>
+      <c r="J88" t="s">
+        <v>648</v>
+      </c>
+      <c r="K88" t="s">
+        <v>649</v>
+      </c>
+      <c r="L88" t="s">
+        <v>650</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>651</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>652</v>
+      </c>
+      <c r="X88" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>655</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>656</v>
+      </c>
+      <c r="J89" t="s">
+        <v>657</v>
+      </c>
+      <c r="K89" t="s">
+        <v>658</v>
+      </c>
+      <c r="L89" t="s">
+        <v>659</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>660</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>662</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>663</v>
+      </c>
+      <c r="J90" t="s">
+        <v>664</v>
+      </c>
+      <c r="K90" t="s">
+        <v>665</v>
+      </c>
+      <c r="L90" t="s">
+        <v>666</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>667</v>
+      </c>
+      <c r="O90" t="s">
+        <v>106</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>643</v>
+      </c>
+      <c r="X90" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>669</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>670</v>
+      </c>
+      <c r="J91" t="s">
+        <v>671</v>
+      </c>
+      <c r="K91" t="s">
+        <v>672</v>
+      </c>
+      <c r="L91" t="s">
+        <v>673</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>674</v>
+      </c>
+      <c r="O91" t="s">
+        <v>71</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>675</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>676</v>
+      </c>
+      <c r="J92" t="s">
+        <v>677</v>
+      </c>
+      <c r="K92" t="s">
+        <v>678</v>
+      </c>
+      <c r="L92" t="s">
+        <v>679</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>680</v>
+      </c>
+      <c r="O92" t="s">
+        <v>106</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>681</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>682</v>
+      </c>
+      <c r="J93" t="s">
+        <v>683</v>
+      </c>
+      <c r="K93" t="s">
+        <v>684</v>
+      </c>
+      <c r="L93" t="s">
+        <v>685</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>686</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>687</v>
+      </c>
+      <c r="J94" t="s">
+        <v>688</v>
+      </c>
+      <c r="K94" t="s">
+        <v>689</v>
+      </c>
+      <c r="L94" t="s">
+        <v>690</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>691</v>
+      </c>
+      <c r="O94" t="s">
+        <v>106</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>692</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>693</v>
+      </c>
+      <c r="J95" t="s">
+        <v>694</v>
+      </c>
+      <c r="K95" t="s">
+        <v>695</v>
+      </c>
+      <c r="L95" t="s">
+        <v>696</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>698</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>699</v>
+      </c>
+      <c r="J96" t="s">
+        <v>700</v>
+      </c>
+      <c r="K96" t="s">
+        <v>701</v>
+      </c>
+      <c r="L96" t="s">
+        <v>702</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>
